--- a/Modelo.xlsx
+++ b/Modelo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="50">
   <si>
     <t>EMPENHO</t>
   </si>
@@ -176,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="&quot;R$ &quot;#,##0.00;[Red]&quot;-R$ &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,13 +282,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -477,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,7 +574,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,45 +582,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -641,9 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -651,18 +607,8 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -671,14 +617,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,7 +648,59 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1018,7 +1010,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,10 +1143,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan2"/>
-  <dimension ref="A1:R369"/>
+  <dimension ref="A1:R363"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,17 +1168,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1196,17 +1188,17 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
       <c r="J2" s="5"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
@@ -1236,25 +1228,25 @@
       <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="66">
         <f>EMPENHOS!G2</f>
         <v>0</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="89" t="str">
+      <c r="F4" s="69" t="str">
         <f>LEFT(EMPENHOS!D2,20)</f>
         <v/>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="89"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="5"/>
       <c r="K4" s="19"/>
       <c r="L4" s="26"/>
@@ -1265,15 +1257,15 @@
       <c r="R4" s="27"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="92"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="5"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -1284,17 +1276,17 @@
       <c r="R5" s="27"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1305,15 +1297,15 @@
       <c r="R6" s="27"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="92"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1324,22 +1316,22 @@
       <c r="R7" s="27"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="94" t="str">
+      <c r="B8" s="73" t="str">
         <f>MID(EMPENHOS!B2,19,100)&amp;" "&amp;MID(EMPENHOS!B2,1,18)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="97" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1350,21 +1342,21 @@
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="89" t="s">
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1375,15 +1367,15 @@
       <c r="R9" s="27"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1394,15 +1386,15 @@
       <c r="R10" s="27"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1413,17 +1405,17 @@
       <c r="R11" s="27"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1434,15 +1426,15 @@
       <c r="R12" s="27"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="92"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1453,35 +1445,35 @@
       <c r="R13" s="27"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="109">
+      <c r="B14" s="82">
         <f>EMPENHOS!A2</f>
         <v>0</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="111" t="str">
+      <c r="D14" s="84" t="str">
         <f>IFERROR(MID(EMPENHOS!F2,13,2),"")</f>
         <v/>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="86">
         <f>EMPENHOS!E2</f>
         <v>0</v>
       </c>
-      <c r="G14" s="112" t="s">
+      <c r="G14" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="114">
+      <c r="H14" s="87">
         <f>C29+C35+C41+C47+C53+C59+C65+C71+C77+C83+C89+C95+C101+C107+C113+C119+C125+C131+C137+C143+C149+C155+C161</f>
         <v>0</v>
       </c>
-      <c r="I14" s="92"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1492,25 +1484,25 @@
       <c r="R14" s="27"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="112" t="s">
+      <c r="D15" s="88"/>
+      <c r="E15" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="112" t="s">
+      <c r="F15" s="88"/>
+      <c r="G15" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="87">
         <v>0</v>
       </c>
-      <c r="I15" s="92"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
@@ -1521,25 +1513,25 @@
       <c r="R15" s="27"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="112" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="117"/>
-      <c r="G16" s="112" t="s">
+      <c r="F16" s="90"/>
+      <c r="G16" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="114">
+      <c r="H16" s="87">
         <v>0</v>
       </c>
-      <c r="I16" s="92"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="8"/>
@@ -1550,18 +1542,18 @@
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="118">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="91">
         <f>SUM(H14:H16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="89"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="6"/>
       <c r="K17" s="9"/>
       <c r="L17" s="6"/>
@@ -1572,17 +1564,17 @@
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="8"/>
@@ -1593,15 +1585,15 @@
       <c r="R18" s="27"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="92"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="8"/>
@@ -1612,25 +1604,25 @@
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="103">
+      <c r="B20" s="111">
         <f>EMPENHOS!I2</f>
         <v>0</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="89" t="s">
+      <c r="C20" s="111"/>
+      <c r="D20" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="115">
         <f>EMPENHOS!H2</f>
         <v>0</v>
       </c>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="92"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="8"/>
@@ -1641,29 +1633,29 @@
       <c r="R20" s="27"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="89" t="s">
+      <c r="C21" s="78"/>
+      <c r="D21" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="69">
         <f>EMPENHOS!J2</f>
         <v>0</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="89" t="s">
+      <c r="F21" s="70"/>
+      <c r="G21" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="69">
         <f>EMPENHOS!K2</f>
         <v>0</v>
       </c>
-      <c r="I21" s="89"/>
+      <c r="I21" s="69"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="8"/>
@@ -1756,17 +1748,17 @@
       <c r="R25" s="27"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1825,11 +1817,11 @@
       <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="str">
+      <c r="A29" s="93" t="str">
         <f>IF(EMPENHOS!A5="","",EMPENHOS!A5)</f>
         <v/>
       </c>
-      <c r="B29" s="67"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="48">
         <f>EMPENHOS!B5</f>
         <v>0</v>
@@ -1850,18 +1842,18 @@
       <c r="R29" s="27"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="str">
+      <c r="A30" s="103" t="str">
         <f>IF(A29="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A29&amp;" - "&amp;EMPENHOS!C5&amp;"."&amp;EMPENHOS!D5&amp;" - "&amp;C29&amp;"."&amp;MID(EMPENHOS!E5,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1873,14 +1865,14 @@
       <c r="R30" s="27"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1891,14 +1883,14 @@
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="109"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1955,11 +1947,11 @@
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="70" t="str">
+      <c r="A35" s="93" t="str">
         <f>IF(EMPENHOS!A6="","",EMPENHOS!A6)</f>
         <v/>
       </c>
-      <c r="B35" s="67"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="48">
         <f>EMPENHOS!B6</f>
         <v>0</v>
@@ -1979,18 +1971,18 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="str">
+      <c r="A36" s="103" t="str">
         <f>IF(A35="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A35&amp;" - "&amp;EMPENHOS!C6&amp;"."&amp;EMPENHOS!D6&amp;" - "&amp;C35&amp;"."&amp;MID(EMPENHOS!E6,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="79"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="105"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2001,14 +1993,14 @@
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="79"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="105"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -2019,14 +2011,14 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="83"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="109"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2083,11 +2075,11 @@
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="70" t="str">
+      <c r="A41" s="93" t="str">
         <f>IF(EMPENHOS!A7="","",EMPENHOS!A7)</f>
         <v/>
       </c>
-      <c r="B41" s="67"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="48">
         <f>EMPENHOS!B7</f>
         <v>0</v>
@@ -2107,18 +2099,18 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="str">
+      <c r="A42" s="103" t="str">
         <f>IF(A41="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A41&amp;" - "&amp;EMPENHOS!C7&amp;"."&amp;EMPENHOS!D7&amp;" - "&amp;C41&amp;"."&amp;MID(EMPENHOS!E7,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="79"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -2129,14 +2121,14 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="79"/>
+      <c r="A43" s="106"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="105"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -2147,14 +2139,14 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="83"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="109"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -2211,11 +2203,11 @@
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="str">
+      <c r="A47" s="93" t="str">
         <f>IF(EMPENHOS!A8="","",EMPENHOS!A8)</f>
         <v/>
       </c>
-      <c r="B47" s="67"/>
+      <c r="B47" s="94"/>
       <c r="C47" s="48">
         <f>EMPENHOS!B8</f>
         <v>0</v>
@@ -2235,18 +2227,18 @@
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="str">
+      <c r="A48" s="103" t="str">
         <f>IF(A47="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A47&amp;" - "&amp;EMPENHOS!C8&amp;"."&amp;EMPENHOS!D8&amp;" - "&amp;C47&amp;"."&amp;MID(EMPENHOS!E8,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="79"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="105"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2257,14 +2249,14 @@
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="79"/>
+      <c r="A49" s="106"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="105"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2275,14 +2267,14 @@
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="83"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="109"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -2339,11 +2331,11 @@
       <c r="P52" s="5"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="70" t="str">
+      <c r="A53" s="93" t="str">
         <f>IF(EMPENHOS!A9="","",EMPENHOS!A9)</f>
         <v/>
       </c>
-      <c r="B53" s="67"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="48">
         <f>EMPENHOS!B9</f>
         <v>0</v>
@@ -2363,18 +2355,18 @@
       <c r="P53" s="5"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="71" t="str">
+      <c r="A54" s="95" t="str">
         <f>IF(A53="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A53&amp;" - "&amp;EMPENHOS!C9&amp;"."&amp;EMPENHOS!D9&amp;" - "&amp;C53&amp;"."&amp;MID(EMPENHOS!E9,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="72"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="96"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -2385,14 +2377,14 @@
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="72"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="96"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -2403,14 +2395,14 @@
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="74"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="76"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="100"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -2467,11 +2459,11 @@
       <c r="P58" s="5"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="70" t="str">
+      <c r="A59" s="93" t="str">
         <f>IF(EMPENHOS!A10="","",EMPENHOS!A10)</f>
         <v/>
       </c>
-      <c r="B59" s="67"/>
+      <c r="B59" s="94"/>
       <c r="C59" s="48">
         <f>EMPENHOS!B10</f>
         <v>0</v>
@@ -2491,18 +2483,18 @@
       <c r="P59" s="5"/>
     </row>
     <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71" t="str">
+      <c r="A60" s="95" t="str">
         <f>IF(A59="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A59&amp;" - "&amp;EMPENHOS!C10&amp;"."&amp;EMPENHOS!D10&amp;" - "&amp;C59&amp;"."&amp;MID(EMPENHOS!E10,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="72"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="96"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2513,14 +2505,14 @@
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="72"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="96"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -2531,14 +2523,14 @@
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="76"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="100"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -2595,11 +2587,11 @@
       <c r="P64" s="5"/>
     </row>
     <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="70" t="str">
+      <c r="A65" s="93" t="str">
         <f>IF(EMPENHOS!A11="","",EMPENHOS!A11)</f>
         <v/>
       </c>
-      <c r="B65" s="67"/>
+      <c r="B65" s="94"/>
       <c r="C65" s="48">
         <f>EMPENHOS!B11</f>
         <v>0</v>
@@ -2619,18 +2611,18 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="str">
+      <c r="A66" s="95" t="str">
         <f>IF(A65="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A65&amp;" - "&amp;EMPENHOS!C11&amp;"."&amp;EMPENHOS!D11&amp;" - "&amp;C65&amp;"."&amp;MID(EMPENHOS!E11,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="72"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="96"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -2641,14 +2633,14 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="72"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="96"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -2659,14 +2651,14 @@
       <c r="P67" s="5"/>
     </row>
     <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="74"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="76"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="100"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -2723,11 +2715,11 @@
       <c r="P70" s="5"/>
     </row>
     <row r="71" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="70" t="str">
+      <c r="A71" s="93" t="str">
         <f>IF(EMPENHOS!A12="","",EMPENHOS!A12)</f>
         <v/>
       </c>
-      <c r="B71" s="67"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="48">
         <f>EMPENHOS!B12</f>
         <v>0</v>
@@ -2747,18 +2739,18 @@
       <c r="P71" s="5"/>
     </row>
     <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="71" t="str">
+      <c r="A72" s="95" t="str">
         <f>IF(A71="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A71&amp;" - "&amp;EMPENHOS!C12&amp;"."&amp;EMPENHOS!D12&amp;" - "&amp;C71&amp;"."&amp;MID(EMPENHOS!E12,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="72"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="96"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -2769,14 +2761,14 @@
       <c r="P72" s="5"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="72"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="96"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -2787,14 +2779,14 @@
       <c r="P73" s="5"/>
     </row>
     <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="74"/>
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="76"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="100"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -2851,11 +2843,11 @@
       <c r="P76" s="5"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="70" t="str">
+      <c r="A77" s="93" t="str">
         <f>IF(EMPENHOS!A13="","",EMPENHOS!A13)</f>
         <v/>
       </c>
-      <c r="B77" s="67"/>
+      <c r="B77" s="94"/>
       <c r="C77" s="48">
         <f>EMPENHOS!B13</f>
         <v>0</v>
@@ -2875,18 +2867,18 @@
       <c r="P77" s="5"/>
     </row>
     <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71" t="str">
+      <c r="A78" s="95" t="str">
         <f>IF(A77="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A77&amp;" - "&amp;EMPENHOS!C13&amp;"."&amp;EMPENHOS!D13&amp;" - "&amp;C77&amp;"."&amp;MID(EMPENHOS!E13,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B78" s="67"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="72"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="96"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -2897,14 +2889,14 @@
       <c r="P78" s="5"/>
     </row>
     <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="72"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="94"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="94"/>
+      <c r="H79" s="96"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -2915,14 +2907,14 @@
       <c r="P79" s="5"/>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="74"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="76"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="100"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -2979,11 +2971,11 @@
       <c r="P82" s="5"/>
     </row>
     <row r="83" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="70" t="str">
+      <c r="A83" s="93" t="str">
         <f>IF(EMPENHOS!A14="","",EMPENHOS!A14)</f>
         <v/>
       </c>
-      <c r="B83" s="67"/>
+      <c r="B83" s="94"/>
       <c r="C83" s="48">
         <f>EMPENHOS!B14</f>
         <v>0</v>
@@ -3003,18 +2995,18 @@
       <c r="P83" s="5"/>
     </row>
     <row r="84" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="71" t="str">
+      <c r="A84" s="95" t="str">
         <f>IF(A83="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A83&amp;" - "&amp;EMPENHOS!C14&amp;"."&amp;EMPENHOS!D14&amp;" - "&amp;C83&amp;"."&amp;MID(EMPENHOS!E14,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="72"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="96"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -3025,14 +3017,14 @@
       <c r="P84" s="5"/>
     </row>
     <row r="85" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="72"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="96"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -3043,14 +3035,14 @@
       <c r="P85" s="5"/>
     </row>
     <row r="86" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="74"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="76"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99"/>
+      <c r="H86" s="100"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -3107,11 +3099,11 @@
       <c r="P88" s="5"/>
     </row>
     <row r="89" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="70" t="str">
+      <c r="A89" s="93" t="str">
         <f>IF(EMPENHOS!A15="","",EMPENHOS!A15)</f>
         <v/>
       </c>
-      <c r="B89" s="67"/>
+      <c r="B89" s="94"/>
       <c r="C89" s="48">
         <f>EMPENHOS!B15</f>
         <v>0</v>
@@ -3131,18 +3123,18 @@
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="71" t="str">
+      <c r="A90" s="95" t="str">
         <f>IF(A89="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A89&amp;" - "&amp;EMPENHOS!C15&amp;"."&amp;EMPENHOS!D15&amp;" -"&amp;C89&amp;"."&amp;MID(EMPENHOS!E15,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="72"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="94"/>
+      <c r="H90" s="96"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -3153,14 +3145,14 @@
       <c r="P90" s="5"/>
     </row>
     <row r="91" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="72"/>
+      <c r="A91" s="97"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="94"/>
+      <c r="H91" s="96"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -3171,14 +3163,14 @@
       <c r="P91" s="5"/>
     </row>
     <row r="92" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="75"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="76"/>
+      <c r="A92" s="98"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="100"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -3235,11 +3227,11 @@
       <c r="P94" s="5"/>
     </row>
     <row r="95" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="70" t="str">
+      <c r="A95" s="93" t="str">
         <f>IF(EMPENHOS!A16="","",EMPENHOS!A16)</f>
         <v/>
       </c>
-      <c r="B95" s="67"/>
+      <c r="B95" s="94"/>
       <c r="C95" s="48">
         <f>EMPENHOS!B16</f>
         <v>0</v>
@@ -3259,18 +3251,18 @@
       <c r="P95" s="5"/>
     </row>
     <row r="96" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="71" t="str">
+      <c r="A96" s="95" t="str">
         <f>IF(A95="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A95&amp;" - "&amp;EMPENHOS!C16&amp;"."&amp;EMPENHOS!D16&amp;" - "&amp;C95&amp;"."&amp;MID(EMPENHOS!E16,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B96" s="67"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="72"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="94"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="94"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="94"/>
+      <c r="H96" s="96"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -3281,14 +3273,14 @@
       <c r="P96" s="5"/>
     </row>
     <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="73"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="72"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="94"/>
+      <c r="D97" s="94"/>
+      <c r="E97" s="94"/>
+      <c r="F97" s="94"/>
+      <c r="G97" s="94"/>
+      <c r="H97" s="96"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -3299,14 +3291,14 @@
       <c r="P97" s="5"/>
     </row>
     <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="75"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="76"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
+      <c r="H98" s="100"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -3363,11 +3355,11 @@
       <c r="P100" s="5"/>
     </row>
     <row r="101" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="70" t="str">
+      <c r="A101" s="93" t="str">
         <f>IF(EMPENHOS!A17="","",EMPENHOS!A17)</f>
         <v/>
       </c>
-      <c r="B101" s="67"/>
+      <c r="B101" s="94"/>
       <c r="C101" s="48">
         <f>EMPENHOS!B17</f>
         <v>0</v>
@@ -3387,18 +3379,18 @@
       <c r="P101" s="5"/>
     </row>
     <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="71" t="str">
+      <c r="A102" s="95" t="str">
         <f>IF(A101="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A101&amp;" - "&amp;EMPENHOS!C17&amp;"."&amp;EMPENHOS!D17&amp;" -  "&amp;C101&amp;"."&amp;MID(EMPENHOS!E17,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B102" s="67"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="72"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="94"/>
+      <c r="H102" s="96"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -3409,14 +3401,14 @@
       <c r="P102" s="5"/>
     </row>
     <row r="103" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="73"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="72"/>
+      <c r="A103" s="97"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="96"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -3427,14 +3419,14 @@
       <c r="P103" s="5"/>
     </row>
     <row r="104" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="74"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="75"/>
-      <c r="H104" s="76"/>
+      <c r="A104" s="98"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="100"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -3491,11 +3483,11 @@
       <c r="P106" s="5"/>
     </row>
     <row r="107" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="70" t="str">
+      <c r="A107" s="93" t="str">
         <f>IF(EMPENHOS!A18="","",EMPENHOS!A18)</f>
         <v/>
       </c>
-      <c r="B107" s="67"/>
+      <c r="B107" s="94"/>
       <c r="C107" s="48">
         <f>EMPENHOS!B18</f>
         <v>0</v>
@@ -3515,18 +3507,18 @@
       <c r="P107" s="5"/>
     </row>
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="71" t="str">
+      <c r="A108" s="95" t="str">
         <f>IF(A107="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A107&amp;" - "&amp;EMPENHOS!C18&amp;"."&amp;EMPENHOS!D18&amp;" - "&amp;C107&amp;"."&amp;MID(EMPENHOS!E18,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B108" s="67"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="72"/>
+      <c r="B108" s="94"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="94"/>
+      <c r="G108" s="94"/>
+      <c r="H108" s="96"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -3537,14 +3529,14 @@
       <c r="P108" s="5"/>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="72"/>
+      <c r="A109" s="97"/>
+      <c r="B109" s="94"/>
+      <c r="C109" s="94"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="94"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="94"/>
+      <c r="H109" s="96"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -3555,14 +3547,14 @@
       <c r="P109" s="5"/>
     </row>
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="74"/>
-      <c r="B110" s="75"/>
-      <c r="C110" s="75"/>
-      <c r="D110" s="75"/>
-      <c r="E110" s="75"/>
-      <c r="F110" s="75"/>
-      <c r="G110" s="75"/>
-      <c r="H110" s="76"/>
+      <c r="A110" s="98"/>
+      <c r="B110" s="99"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="99"/>
+      <c r="H110" s="100"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -3619,11 +3611,11 @@
       <c r="P112" s="5"/>
     </row>
     <row r="113" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="70" t="str">
+      <c r="A113" s="93" t="str">
         <f>IF(EMPENHOS!A19="","",EMPENHOS!A19)</f>
         <v/>
       </c>
-      <c r="B113" s="67"/>
+      <c r="B113" s="94"/>
       <c r="C113" s="48">
         <f>EMPENHOS!B19</f>
         <v>0</v>
@@ -3643,18 +3635,18 @@
       <c r="P113" s="5"/>
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="71" t="str">
+      <c r="A114" s="95" t="str">
         <f>IF(A113="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A113&amp;" - "&amp;EMPENHOS!C19&amp;"."&amp;EMPENHOS!D19&amp;" - "&amp;C113&amp;"."&amp;MID(EMPENHOS!E19,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="72"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="96"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -3665,14 +3657,14 @@
       <c r="P114" s="5"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="72"/>
+      <c r="A115" s="97"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="94"/>
+      <c r="D115" s="94"/>
+      <c r="E115" s="94"/>
+      <c r="F115" s="94"/>
+      <c r="G115" s="94"/>
+      <c r="H115" s="96"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
@@ -3683,14 +3675,14 @@
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="74"/>
-      <c r="B116" s="75"/>
-      <c r="C116" s="75"/>
-      <c r="D116" s="75"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="75"/>
-      <c r="H116" s="76"/>
+      <c r="A116" s="98"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="99"/>
+      <c r="F116" s="99"/>
+      <c r="G116" s="99"/>
+      <c r="H116" s="100"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -3747,11 +3739,11 @@
       <c r="P118" s="5"/>
     </row>
     <row r="119" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="70" t="str">
+      <c r="A119" s="93" t="str">
         <f>IF(EMPENHOS!A20="","",EMPENHOS!A20)</f>
         <v/>
       </c>
-      <c r="B119" s="67"/>
+      <c r="B119" s="94"/>
       <c r="C119" s="48">
         <f>EMPENHOS!B20</f>
         <v>0</v>
@@ -3771,18 +3763,18 @@
       <c r="P119" s="5"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="71" t="str">
+      <c r="A120" s="95" t="str">
         <f>IF(A119="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A119&amp;" - "&amp;EMPENHOS!C5&amp;"."&amp;EMPENHOS!D20&amp;" - "&amp;C119&amp;"."&amp;MID(EMPENHOS!E20,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="72"/>
+      <c r="B120" s="94"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="94"/>
+      <c r="E120" s="94"/>
+      <c r="F120" s="94"/>
+      <c r="G120" s="94"/>
+      <c r="H120" s="96"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -3793,14 +3785,14 @@
       <c r="P120" s="5"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="73"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="72"/>
+      <c r="A121" s="97"/>
+      <c r="B121" s="94"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="94"/>
+      <c r="E121" s="94"/>
+      <c r="F121" s="94"/>
+      <c r="G121" s="94"/>
+      <c r="H121" s="96"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -3811,14 +3803,14 @@
       <c r="P121" s="5"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="74"/>
-      <c r="B122" s="75"/>
-      <c r="C122" s="75"/>
-      <c r="D122" s="75"/>
-      <c r="E122" s="75"/>
-      <c r="F122" s="75"/>
-      <c r="G122" s="75"/>
-      <c r="H122" s="76"/>
+      <c r="A122" s="98"/>
+      <c r="B122" s="99"/>
+      <c r="C122" s="99"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="99"/>
+      <c r="F122" s="99"/>
+      <c r="G122" s="99"/>
+      <c r="H122" s="100"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -3875,11 +3867,11 @@
       <c r="P124" s="5"/>
     </row>
     <row r="125" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="70" t="str">
+      <c r="A125" s="93" t="str">
         <f>IF(EMPENHOS!A21="","",EMPENHOS!A21)</f>
         <v/>
       </c>
-      <c r="B125" s="67"/>
+      <c r="B125" s="94"/>
       <c r="C125" s="48">
         <f>EMPENHOS!B21</f>
         <v>0</v>
@@ -3899,18 +3891,18 @@
       <c r="P125" s="5"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="71" t="str">
+      <c r="A126" s="95" t="str">
         <f>IF(A125="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A125&amp;" - "&amp;EMPENHOS!C21&amp;"."&amp;EMPENHOS!D21&amp;" - "&amp;C125&amp;"."&amp;MID(EMPENHOS!E21,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B126" s="67"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="72"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="94"/>
+      <c r="D126" s="94"/>
+      <c r="E126" s="94"/>
+      <c r="F126" s="94"/>
+      <c r="G126" s="94"/>
+      <c r="H126" s="96"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -3921,14 +3913,14 @@
       <c r="P126" s="5"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="73"/>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="72"/>
+      <c r="A127" s="97"/>
+      <c r="B127" s="94"/>
+      <c r="C127" s="94"/>
+      <c r="D127" s="94"/>
+      <c r="E127" s="94"/>
+      <c r="F127" s="94"/>
+      <c r="G127" s="94"/>
+      <c r="H127" s="96"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -3939,14 +3931,14 @@
       <c r="P127" s="5"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="74"/>
-      <c r="B128" s="75"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="75"/>
-      <c r="E128" s="75"/>
-      <c r="F128" s="75"/>
-      <c r="G128" s="75"/>
-      <c r="H128" s="76"/>
+      <c r="A128" s="98"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="99"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="99"/>
+      <c r="F128" s="99"/>
+      <c r="G128" s="99"/>
+      <c r="H128" s="100"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -4003,11 +3995,11 @@
       <c r="P130" s="5"/>
     </row>
     <row r="131" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="70" t="str">
+      <c r="A131" s="93" t="str">
         <f>IF(EMPENHOS!A22="","",EMPENHOS!A22)</f>
         <v/>
       </c>
-      <c r="B131" s="67"/>
+      <c r="B131" s="94"/>
       <c r="C131" s="48">
         <f>EMPENHOS!B22</f>
         <v>0</v>
@@ -4027,18 +4019,18 @@
       <c r="P131" s="5"/>
     </row>
     <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="71" t="str">
+      <c r="A132" s="95" t="str">
         <f>IF(A131="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A131&amp;" - "&amp;EMPENHOS!C22&amp;"."&amp;EMPENHOS!D22&amp;" - "&amp;C131&amp;"."&amp;MID(EMPENHOS!E22,12,46)&amp;"
  - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B132" s="67"/>
-      <c r="C132" s="67"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="72"/>
+      <c r="B132" s="94"/>
+      <c r="C132" s="94"/>
+      <c r="D132" s="94"/>
+      <c r="E132" s="94"/>
+      <c r="F132" s="94"/>
+      <c r="G132" s="94"/>
+      <c r="H132" s="96"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -4049,14 +4041,14 @@
       <c r="P132" s="5"/>
     </row>
     <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="73"/>
-      <c r="B133" s="67"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="67"/>
-      <c r="H133" s="72"/>
+      <c r="A133" s="97"/>
+      <c r="B133" s="94"/>
+      <c r="C133" s="94"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="94"/>
+      <c r="F133" s="94"/>
+      <c r="G133" s="94"/>
+      <c r="H133" s="96"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -4067,14 +4059,14 @@
       <c r="P133" s="5"/>
     </row>
     <row r="134" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="74"/>
-      <c r="B134" s="75"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="75"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="75"/>
-      <c r="G134" s="75"/>
-      <c r="H134" s="76"/>
+      <c r="A134" s="98"/>
+      <c r="B134" s="99"/>
+      <c r="C134" s="99"/>
+      <c r="D134" s="99"/>
+      <c r="E134" s="99"/>
+      <c r="F134" s="99"/>
+      <c r="G134" s="99"/>
+      <c r="H134" s="100"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -4131,11 +4123,11 @@
       <c r="P136" s="5"/>
     </row>
     <row r="137" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="70" t="str">
+      <c r="A137" s="93" t="str">
         <f>IF(EMPENHOS!A23="","",EMPENHOS!A23)</f>
         <v/>
       </c>
-      <c r="B137" s="67"/>
+      <c r="B137" s="94"/>
       <c r="C137" s="48">
         <f>EMPENHOS!B23</f>
         <v>0</v>
@@ -4155,18 +4147,18 @@
       <c r="P137" s="5"/>
     </row>
     <row r="138" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="71" t="str">
+      <c r="A138" s="95" t="str">
         <f>IF(A137="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A137&amp;" - "&amp;EMPENHOS!C23&amp;"."&amp;EMPENHOS!D23&amp;" -"&amp;C137&amp;"."&amp;MID(EMPENHOS!E23,12,46)&amp;"
- - SOLICITANTE: "&amp;A30)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B138" s="67"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="72"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="94"/>
+      <c r="D138" s="94"/>
+      <c r="E138" s="94"/>
+      <c r="F138" s="94"/>
+      <c r="G138" s="94"/>
+      <c r="H138" s="96"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -4177,14 +4169,14 @@
       <c r="P138" s="5"/>
     </row>
     <row r="139" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="73"/>
-      <c r="B139" s="67"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="72"/>
+      <c r="A139" s="97"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="94"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="94"/>
+      <c r="H139" s="96"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -4195,14 +4187,14 @@
       <c r="P139" s="5"/>
     </row>
     <row r="140" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="74"/>
-      <c r="B140" s="75"/>
-      <c r="C140" s="75"/>
-      <c r="D140" s="75"/>
-      <c r="E140" s="75"/>
-      <c r="F140" s="75"/>
-      <c r="G140" s="75"/>
-      <c r="H140" s="76"/>
+      <c r="A140" s="98"/>
+      <c r="B140" s="99"/>
+      <c r="C140" s="99"/>
+      <c r="D140" s="99"/>
+      <c r="E140" s="99"/>
+      <c r="F140" s="99"/>
+      <c r="G140" s="99"/>
+      <c r="H140" s="100"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -4259,11 +4251,11 @@
       <c r="P142" s="5"/>
     </row>
     <row r="143" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="70" t="str">
+      <c r="A143" s="93" t="str">
         <f>IF(EMPENHOS!A24="","",EMPENHOS!A24)</f>
         <v/>
       </c>
-      <c r="B143" s="67"/>
+      <c r="B143" s="94"/>
       <c r="C143" s="48">
         <f>EMPENHOS!B24</f>
         <v>0</v>
@@ -4283,18 +4275,18 @@
       <c r="P143" s="5"/>
     </row>
     <row r="144" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="71" t="str">
+      <c r="A144" s="95" t="str">
         <f>IF(A143="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A143&amp;" - "&amp;EMPENHOS!C24&amp;"."&amp;EMPENHOS!D24&amp;" - "&amp;C143&amp;"."&amp;MID(EMPENHOS!E24,12,46)&amp;"
- - SOLICITANTE: "&amp;A36)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B144" s="67"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="72"/>
+      <c r="B144" s="94"/>
+      <c r="C144" s="94"/>
+      <c r="D144" s="94"/>
+      <c r="E144" s="94"/>
+      <c r="F144" s="94"/>
+      <c r="G144" s="94"/>
+      <c r="H144" s="96"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -4305,14 +4297,14 @@
       <c r="P144" s="5"/>
     </row>
     <row r="145" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="73"/>
-      <c r="B145" s="67"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="67"/>
-      <c r="H145" s="72"/>
+      <c r="A145" s="97"/>
+      <c r="B145" s="94"/>
+      <c r="C145" s="94"/>
+      <c r="D145" s="94"/>
+      <c r="E145" s="94"/>
+      <c r="F145" s="94"/>
+      <c r="G145" s="94"/>
+      <c r="H145" s="96"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -4323,14 +4315,14 @@
       <c r="P145" s="5"/>
     </row>
     <row r="146" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="74"/>
-      <c r="B146" s="75"/>
-      <c r="C146" s="75"/>
-      <c r="D146" s="75"/>
-      <c r="E146" s="75"/>
-      <c r="F146" s="75"/>
-      <c r="G146" s="75"/>
-      <c r="H146" s="76"/>
+      <c r="A146" s="98"/>
+      <c r="B146" s="99"/>
+      <c r="C146" s="99"/>
+      <c r="D146" s="99"/>
+      <c r="E146" s="99"/>
+      <c r="F146" s="99"/>
+      <c r="G146" s="99"/>
+      <c r="H146" s="100"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -4387,11 +4379,11 @@
       <c r="P148" s="5"/>
     </row>
     <row r="149" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="70" t="str">
+      <c r="A149" s="93" t="str">
         <f>IF(EMPENHOS!A25="","",EMPENHOS!A25)</f>
         <v/>
       </c>
-      <c r="B149" s="67"/>
+      <c r="B149" s="94"/>
       <c r="C149" s="48">
         <f>EMPENHOS!B25</f>
         <v>0</v>
@@ -4411,18 +4403,18 @@
       <c r="P149" s="5"/>
     </row>
     <row r="150" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="71" t="str">
+      <c r="A150" s="95" t="str">
         <f>IF(A149="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A149&amp;" - "&amp;EMPENHOS!C25&amp;"."&amp;EMPENHOS!D25&amp;" - "&amp;C149&amp;"."&amp;MID(EMPENHOS!E25,12,46)&amp;"
- - SOLICITANTE: "&amp;A42)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B150" s="67"/>
-      <c r="C150" s="67"/>
-      <c r="D150" s="67"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="67"/>
-      <c r="H150" s="72"/>
+      <c r="B150" s="94"/>
+      <c r="C150" s="94"/>
+      <c r="D150" s="94"/>
+      <c r="E150" s="94"/>
+      <c r="F150" s="94"/>
+      <c r="G150" s="94"/>
+      <c r="H150" s="96"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -4433,14 +4425,14 @@
       <c r="P150" s="5"/>
     </row>
     <row r="151" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="73"/>
-      <c r="B151" s="67"/>
-      <c r="C151" s="67"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="67"/>
-      <c r="F151" s="67"/>
-      <c r="G151" s="67"/>
-      <c r="H151" s="72"/>
+      <c r="A151" s="97"/>
+      <c r="B151" s="94"/>
+      <c r="C151" s="94"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="94"/>
+      <c r="F151" s="94"/>
+      <c r="G151" s="94"/>
+      <c r="H151" s="96"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -4451,14 +4443,14 @@
       <c r="P151" s="5"/>
     </row>
     <row r="152" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="74"/>
-      <c r="B152" s="75"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="75"/>
-      <c r="E152" s="75"/>
-      <c r="F152" s="75"/>
-      <c r="G152" s="75"/>
-      <c r="H152" s="76"/>
+      <c r="A152" s="98"/>
+      <c r="B152" s="99"/>
+      <c r="C152" s="99"/>
+      <c r="D152" s="99"/>
+      <c r="E152" s="99"/>
+      <c r="F152" s="99"/>
+      <c r="G152" s="99"/>
+      <c r="H152" s="100"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
@@ -4515,11 +4507,11 @@
       <c r="P154" s="5"/>
     </row>
     <row r="155" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="70" t="str">
+      <c r="A155" s="93" t="str">
         <f>IF(EMPENHOS!A26="","",EMPENHOS!A26)</f>
         <v/>
       </c>
-      <c r="B155" s="67"/>
+      <c r="B155" s="94"/>
       <c r="C155" s="48">
         <f>EMPENHOS!B26</f>
         <v>0</v>
@@ -4539,18 +4531,18 @@
       <c r="P155" s="5"/>
     </row>
     <row r="156" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="71" t="str">
+      <c r="A156" s="95" t="str">
         <f>IF(A155="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A155&amp;" - "&amp;EMPENHOS!C26&amp;"."&amp;EMPENHOS!D26&amp;" - "&amp;C155&amp;"."&amp;MID(EMPENHOS!E26,12,46)&amp;"
- - SOLICITANTE: "&amp;A48)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B156" s="67"/>
-      <c r="C156" s="67"/>
-      <c r="D156" s="67"/>
-      <c r="E156" s="67"/>
-      <c r="F156" s="67"/>
-      <c r="G156" s="67"/>
-      <c r="H156" s="72"/>
+      <c r="B156" s="94"/>
+      <c r="C156" s="94"/>
+      <c r="D156" s="94"/>
+      <c r="E156" s="94"/>
+      <c r="F156" s="94"/>
+      <c r="G156" s="94"/>
+      <c r="H156" s="96"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -4561,14 +4553,14 @@
       <c r="P156" s="5"/>
     </row>
     <row r="157" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="73"/>
-      <c r="B157" s="67"/>
-      <c r="C157" s="67"/>
-      <c r="D157" s="67"/>
-      <c r="E157" s="67"/>
-      <c r="F157" s="67"/>
-      <c r="G157" s="67"/>
-      <c r="H157" s="72"/>
+      <c r="A157" s="97"/>
+      <c r="B157" s="94"/>
+      <c r="C157" s="94"/>
+      <c r="D157" s="94"/>
+      <c r="E157" s="94"/>
+      <c r="F157" s="94"/>
+      <c r="G157" s="94"/>
+      <c r="H157" s="96"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -4579,14 +4571,14 @@
       <c r="P157" s="5"/>
     </row>
     <row r="158" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="74"/>
-      <c r="B158" s="75"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="75"/>
-      <c r="H158" s="76"/>
+      <c r="A158" s="98"/>
+      <c r="B158" s="99"/>
+      <c r="C158" s="99"/>
+      <c r="D158" s="99"/>
+      <c r="E158" s="99"/>
+      <c r="F158" s="99"/>
+      <c r="G158" s="99"/>
+      <c r="H158" s="100"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -4643,11 +4635,11 @@
       <c r="P160" s="5"/>
     </row>
     <row r="161" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="70" t="str">
+      <c r="A161" s="93" t="str">
         <f>IF(EMPENHOS!A27="","",EMPENHOS!A27)</f>
         <v/>
       </c>
-      <c r="B161" s="67"/>
+      <c r="B161" s="94"/>
       <c r="C161" s="48">
         <f>EMPENHOS!B27</f>
         <v>0</v>
@@ -4667,18 +4659,18 @@
       <c r="P161" s="5"/>
     </row>
     <row r="162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="71" t="str">
+      <c r="A162" s="95" t="str">
         <f>IF(A161="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A161&amp;" - "&amp;EMPENHOS!C27&amp;"."&amp;EMPENHOS!D27&amp;" - "&amp;C161&amp;"."&amp;MID(EMPENHOS!E27,12,46)&amp;"
- - SOLICITANTE: "&amp;A54)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B162" s="67"/>
-      <c r="C162" s="67"/>
-      <c r="D162" s="67"/>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="67"/>
-      <c r="H162" s="72"/>
+      <c r="B162" s="94"/>
+      <c r="C162" s="94"/>
+      <c r="D162" s="94"/>
+      <c r="E162" s="94"/>
+      <c r="F162" s="94"/>
+      <c r="G162" s="94"/>
+      <c r="H162" s="96"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
@@ -4689,14 +4681,14 @@
       <c r="P162" s="5"/>
     </row>
     <row r="163" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="73"/>
-      <c r="B163" s="67"/>
-      <c r="C163" s="67"/>
-      <c r="D163" s="67"/>
-      <c r="E163" s="67"/>
-      <c r="F163" s="67"/>
-      <c r="G163" s="67"/>
-      <c r="H163" s="72"/>
+      <c r="A163" s="97"/>
+      <c r="B163" s="94"/>
+      <c r="C163" s="94"/>
+      <c r="D163" s="94"/>
+      <c r="E163" s="94"/>
+      <c r="F163" s="94"/>
+      <c r="G163" s="94"/>
+      <c r="H163" s="96"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
@@ -4707,14 +4699,14 @@
       <c r="P163" s="5"/>
     </row>
     <row r="164" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="74"/>
-      <c r="B164" s="75"/>
-      <c r="C164" s="75"/>
-      <c r="D164" s="75"/>
-      <c r="E164" s="75"/>
-      <c r="F164" s="75"/>
-      <c r="G164" s="75"/>
-      <c r="H164" s="76"/>
+      <c r="A164" s="98"/>
+      <c r="B164" s="99"/>
+      <c r="C164" s="99"/>
+      <c r="D164" s="99"/>
+      <c r="E164" s="99"/>
+      <c r="F164" s="99"/>
+      <c r="G164" s="99"/>
+      <c r="H164" s="100"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
@@ -4771,11 +4763,11 @@
       <c r="P166" s="5"/>
     </row>
     <row r="167" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="70" t="str">
+      <c r="A167" s="93" t="str">
         <f>IF(EMPENHOS!A28="","",EMPENHOS!A28)</f>
         <v/>
       </c>
-      <c r="B167" s="67"/>
+      <c r="B167" s="94"/>
       <c r="C167" s="48">
         <f>EMPENHOS!B28</f>
         <v>0</v>
@@ -4795,18 +4787,18 @@
       <c r="P167" s="5"/>
     </row>
     <row r="168" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="71" t="str">
+      <c r="A168" s="95" t="str">
         <f>IF(A167="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A167&amp;" - "&amp;EMPENHOS!C28&amp;"."&amp;EMPENHOS!D28&amp;" - "&amp;C167&amp;"."&amp;MID(EMPENHOS!E28,12,46)&amp;"
- - SOLICITANTE: "&amp;A60)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B168" s="67"/>
-      <c r="C168" s="67"/>
-      <c r="D168" s="67"/>
-      <c r="E168" s="67"/>
-      <c r="F168" s="67"/>
-      <c r="G168" s="67"/>
-      <c r="H168" s="72"/>
+      <c r="B168" s="94"/>
+      <c r="C168" s="94"/>
+      <c r="D168" s="94"/>
+      <c r="E168" s="94"/>
+      <c r="F168" s="94"/>
+      <c r="G168" s="94"/>
+      <c r="H168" s="96"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -4817,14 +4809,14 @@
       <c r="P168" s="5"/>
     </row>
     <row r="169" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="73"/>
-      <c r="B169" s="67"/>
-      <c r="C169" s="67"/>
-      <c r="D169" s="67"/>
-      <c r="E169" s="67"/>
-      <c r="F169" s="67"/>
-      <c r="G169" s="67"/>
-      <c r="H169" s="72"/>
+      <c r="A169" s="97"/>
+      <c r="B169" s="94"/>
+      <c r="C169" s="94"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="94"/>
+      <c r="F169" s="94"/>
+      <c r="G169" s="94"/>
+      <c r="H169" s="96"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
@@ -4835,14 +4827,14 @@
       <c r="P169" s="5"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="74"/>
-      <c r="B170" s="75"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="75"/>
-      <c r="E170" s="75"/>
-      <c r="F170" s="75"/>
-      <c r="G170" s="75"/>
-      <c r="H170" s="76"/>
+      <c r="A170" s="98"/>
+      <c r="B170" s="99"/>
+      <c r="C170" s="99"/>
+      <c r="D170" s="99"/>
+      <c r="E170" s="99"/>
+      <c r="F170" s="99"/>
+      <c r="G170" s="99"/>
+      <c r="H170" s="100"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
@@ -4899,11 +4891,11 @@
       <c r="P172" s="5"/>
     </row>
     <row r="173" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="70" t="str">
+      <c r="A173" s="93" t="str">
         <f>IF(EMPENHOS!A29="","",EMPENHOS!A29)</f>
         <v/>
       </c>
-      <c r="B173" s="67"/>
+      <c r="B173" s="94"/>
       <c r="C173" s="48">
         <f>EMPENHOS!B29</f>
         <v>0</v>
@@ -4923,18 +4915,18 @@
       <c r="P173" s="5"/>
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="71" t="str">
+      <c r="A174" s="95" t="str">
         <f>IF(A173="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A173&amp;" - "&amp;EMPENHOS!C29&amp;"."&amp;EMPENHOS!D29&amp;" -  "&amp;C173&amp;"."&amp;MID(EMPENHOS!E29,12,46)&amp;"
- - SOLICITANTE: "&amp;A66)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B174" s="67"/>
-      <c r="C174" s="67"/>
-      <c r="D174" s="67"/>
-      <c r="E174" s="67"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="67"/>
-      <c r="H174" s="72"/>
+      <c r="B174" s="94"/>
+      <c r="C174" s="94"/>
+      <c r="D174" s="94"/>
+      <c r="E174" s="94"/>
+      <c r="F174" s="94"/>
+      <c r="G174" s="94"/>
+      <c r="H174" s="96"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -4945,14 +4937,14 @@
       <c r="P174" s="5"/>
     </row>
     <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="73"/>
-      <c r="B175" s="67"/>
-      <c r="C175" s="67"/>
-      <c r="D175" s="67"/>
-      <c r="E175" s="67"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="67"/>
-      <c r="H175" s="72"/>
+      <c r="A175" s="97"/>
+      <c r="B175" s="94"/>
+      <c r="C175" s="94"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="94"/>
+      <c r="F175" s="94"/>
+      <c r="G175" s="94"/>
+      <c r="H175" s="96"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -4963,14 +4955,14 @@
       <c r="P175" s="5"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A176" s="74"/>
-      <c r="B176" s="75"/>
-      <c r="C176" s="75"/>
-      <c r="D176" s="75"/>
-      <c r="E176" s="75"/>
-      <c r="F176" s="75"/>
-      <c r="G176" s="75"/>
-      <c r="H176" s="76"/>
+      <c r="A176" s="98"/>
+      <c r="B176" s="99"/>
+      <c r="C176" s="99"/>
+      <c r="D176" s="99"/>
+      <c r="E176" s="99"/>
+      <c r="F176" s="99"/>
+      <c r="G176" s="99"/>
+      <c r="H176" s="100"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -5027,11 +5019,11 @@
       <c r="P178" s="5"/>
     </row>
     <row r="179" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="70" t="str">
+      <c r="A179" s="93" t="str">
         <f>IF(EMPENHOS!A30="","",EMPENHOS!A30)</f>
         <v/>
       </c>
-      <c r="B179" s="67"/>
+      <c r="B179" s="94"/>
       <c r="C179" s="48">
         <f>EMPENHOS!B30</f>
         <v>0</v>
@@ -5051,18 +5043,18 @@
       <c r="P179" s="5"/>
     </row>
     <row r="180" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="71" t="str">
+      <c r="A180" s="95" t="str">
         <f>IF(A179="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A179&amp;" - "&amp;EMPENHOS!C30&amp;"."&amp;EMPENHOS!D30&amp;" - "&amp;C179&amp;"."&amp;MID(EMPENHOS!E30,12,46)&amp;"
- - SOLICITANTE: "&amp;A72)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B180" s="67"/>
-      <c r="C180" s="67"/>
-      <c r="D180" s="67"/>
-      <c r="E180" s="67"/>
-      <c r="F180" s="67"/>
-      <c r="G180" s="67"/>
-      <c r="H180" s="72"/>
+      <c r="B180" s="94"/>
+      <c r="C180" s="94"/>
+      <c r="D180" s="94"/>
+      <c r="E180" s="94"/>
+      <c r="F180" s="94"/>
+      <c r="G180" s="94"/>
+      <c r="H180" s="96"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
@@ -5073,14 +5065,14 @@
       <c r="P180" s="5"/>
     </row>
     <row r="181" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="73"/>
-      <c r="B181" s="67"/>
-      <c r="C181" s="67"/>
-      <c r="D181" s="67"/>
-      <c r="E181" s="67"/>
-      <c r="F181" s="67"/>
-      <c r="G181" s="67"/>
-      <c r="H181" s="72"/>
+      <c r="A181" s="97"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="94"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="94"/>
+      <c r="F181" s="94"/>
+      <c r="G181" s="94"/>
+      <c r="H181" s="96"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
@@ -5091,14 +5083,14 @@
       <c r="P181" s="5"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A182" s="74"/>
-      <c r="B182" s="75"/>
-      <c r="C182" s="75"/>
-      <c r="D182" s="75"/>
-      <c r="E182" s="75"/>
-      <c r="F182" s="75"/>
-      <c r="G182" s="75"/>
-      <c r="H182" s="76"/>
+      <c r="A182" s="98"/>
+      <c r="B182" s="99"/>
+      <c r="C182" s="99"/>
+      <c r="D182" s="99"/>
+      <c r="E182" s="99"/>
+      <c r="F182" s="99"/>
+      <c r="G182" s="99"/>
+      <c r="H182" s="100"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
@@ -5155,11 +5147,11 @@
       <c r="P184" s="5"/>
     </row>
     <row r="185" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="70" t="str">
+      <c r="A185" s="93" t="str">
         <f>IF(EMPENHOS!A31="","",EMPENHOS!A31)</f>
         <v/>
       </c>
-      <c r="B185" s="67"/>
+      <c r="B185" s="94"/>
       <c r="C185" s="48">
         <f>EMPENHOS!B31</f>
         <v>0</v>
@@ -5179,18 +5171,18 @@
       <c r="P185" s="5"/>
     </row>
     <row r="186" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="71" t="str">
+      <c r="A186" s="95" t="str">
         <f>IF(A185="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A185&amp;" - "&amp;EMPENHOS!C31&amp;"."&amp;EMPENHOS!D31&amp;" - "&amp;C185&amp;"."&amp;MID(EMPENHOS!E31,12,46)&amp;"
- - SOLICITANTE: "&amp;A78)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B186" s="67"/>
-      <c r="C186" s="67"/>
-      <c r="D186" s="67"/>
-      <c r="E186" s="67"/>
-      <c r="F186" s="67"/>
-      <c r="G186" s="67"/>
-      <c r="H186" s="72"/>
+      <c r="B186" s="94"/>
+      <c r="C186" s="94"/>
+      <c r="D186" s="94"/>
+      <c r="E186" s="94"/>
+      <c r="F186" s="94"/>
+      <c r="G186" s="94"/>
+      <c r="H186" s="96"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -5201,14 +5193,14 @@
       <c r="P186" s="5"/>
     </row>
     <row r="187" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="73"/>
-      <c r="B187" s="67"/>
-      <c r="C187" s="67"/>
-      <c r="D187" s="67"/>
-      <c r="E187" s="67"/>
-      <c r="F187" s="67"/>
-      <c r="G187" s="67"/>
-      <c r="H187" s="72"/>
+      <c r="A187" s="97"/>
+      <c r="B187" s="94"/>
+      <c r="C187" s="94"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="94"/>
+      <c r="F187" s="94"/>
+      <c r="G187" s="94"/>
+      <c r="H187" s="96"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
@@ -5219,14 +5211,14 @@
       <c r="P187" s="5"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A188" s="74"/>
-      <c r="B188" s="75"/>
-      <c r="C188" s="75"/>
-      <c r="D188" s="75"/>
-      <c r="E188" s="75"/>
-      <c r="F188" s="75"/>
-      <c r="G188" s="75"/>
-      <c r="H188" s="76"/>
+      <c r="A188" s="98"/>
+      <c r="B188" s="99"/>
+      <c r="C188" s="99"/>
+      <c r="D188" s="99"/>
+      <c r="E188" s="99"/>
+      <c r="F188" s="99"/>
+      <c r="G188" s="99"/>
+      <c r="H188" s="100"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -5283,11 +5275,11 @@
       <c r="P190" s="5"/>
     </row>
     <row r="191" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="70" t="str">
+      <c r="A191" s="93" t="str">
         <f>IF(EMPENHOS!A32="","",EMPENHOS!A32)</f>
         <v/>
       </c>
-      <c r="B191" s="67"/>
+      <c r="B191" s="94"/>
       <c r="C191" s="48">
         <f>EMPENHOS!B32</f>
         <v>0</v>
@@ -5307,18 +5299,18 @@
       <c r="P191" s="5"/>
     </row>
     <row r="192" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="71" t="str">
+      <c r="A192" s="95" t="str">
         <f>IF(A191="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A191&amp;" - "&amp;EMPENHOS!C32&amp;"."&amp;EMPENHOS!D32&amp;" - "&amp;C191&amp;"."&amp;MID(EMPENHOS!E32,12,46)&amp;"
- - SOLICITANTE: "&amp;A84)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B192" s="67"/>
-      <c r="C192" s="67"/>
-      <c r="D192" s="67"/>
-      <c r="E192" s="67"/>
-      <c r="F192" s="67"/>
-      <c r="G192" s="67"/>
-      <c r="H192" s="72"/>
+      <c r="B192" s="94"/>
+      <c r="C192" s="94"/>
+      <c r="D192" s="94"/>
+      <c r="E192" s="94"/>
+      <c r="F192" s="94"/>
+      <c r="G192" s="94"/>
+      <c r="H192" s="96"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -5329,14 +5321,14 @@
       <c r="P192" s="5"/>
     </row>
     <row r="193" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="73"/>
-      <c r="B193" s="67"/>
-      <c r="C193" s="67"/>
-      <c r="D193" s="67"/>
-      <c r="E193" s="67"/>
-      <c r="F193" s="67"/>
-      <c r="G193" s="67"/>
-      <c r="H193" s="72"/>
+      <c r="A193" s="97"/>
+      <c r="B193" s="94"/>
+      <c r="C193" s="94"/>
+      <c r="D193" s="94"/>
+      <c r="E193" s="94"/>
+      <c r="F193" s="94"/>
+      <c r="G193" s="94"/>
+      <c r="H193" s="96"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
@@ -5347,14 +5339,14 @@
       <c r="P193" s="5"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A194" s="74"/>
-      <c r="B194" s="75"/>
-      <c r="C194" s="75"/>
-      <c r="D194" s="75"/>
-      <c r="E194" s="75"/>
-      <c r="F194" s="75"/>
-      <c r="G194" s="75"/>
-      <c r="H194" s="76"/>
+      <c r="A194" s="98"/>
+      <c r="B194" s="99"/>
+      <c r="C194" s="99"/>
+      <c r="D194" s="99"/>
+      <c r="E194" s="99"/>
+      <c r="F194" s="99"/>
+      <c r="G194" s="99"/>
+      <c r="H194" s="100"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
@@ -5411,11 +5403,11 @@
       <c r="P196" s="5"/>
     </row>
     <row r="197" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="70" t="str">
+      <c r="A197" s="93" t="str">
         <f>IF(EMPENHOS!A33="","",EMPENHOS!A33)</f>
         <v/>
       </c>
-      <c r="B197" s="67"/>
+      <c r="B197" s="94"/>
       <c r="C197" s="48">
         <f>EMPENHOS!B33</f>
         <v>0</v>
@@ -5435,18 +5427,18 @@
       <c r="P197" s="5"/>
     </row>
     <row r="198" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="71" t="str">
+      <c r="A198" s="95" t="str">
         <f>IF(A197="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A197&amp;" - "&amp;EMPENHOS!C33&amp;"."&amp;EMPENHOS!D33&amp;" - "&amp;C197&amp;"."&amp;MID(EMPENHOS!E33,12,46)&amp;"
- - SOLICITANTE: "&amp;A90)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B198" s="67"/>
-      <c r="C198" s="67"/>
-      <c r="D198" s="67"/>
-      <c r="E198" s="67"/>
-      <c r="F198" s="67"/>
-      <c r="G198" s="67"/>
-      <c r="H198" s="72"/>
+      <c r="B198" s="94"/>
+      <c r="C198" s="94"/>
+      <c r="D198" s="94"/>
+      <c r="E198" s="94"/>
+      <c r="F198" s="94"/>
+      <c r="G198" s="94"/>
+      <c r="H198" s="96"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
@@ -5457,14 +5449,14 @@
       <c r="P198" s="5"/>
     </row>
     <row r="199" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="73"/>
-      <c r="B199" s="67"/>
-      <c r="C199" s="67"/>
-      <c r="D199" s="67"/>
-      <c r="E199" s="67"/>
-      <c r="F199" s="67"/>
-      <c r="G199" s="67"/>
-      <c r="H199" s="72"/>
+      <c r="A199" s="97"/>
+      <c r="B199" s="94"/>
+      <c r="C199" s="94"/>
+      <c r="D199" s="94"/>
+      <c r="E199" s="94"/>
+      <c r="F199" s="94"/>
+      <c r="G199" s="94"/>
+      <c r="H199" s="96"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
@@ -5475,14 +5467,14 @@
       <c r="P199" s="5"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A200" s="74"/>
-      <c r="B200" s="75"/>
-      <c r="C200" s="75"/>
-      <c r="D200" s="75"/>
-      <c r="E200" s="75"/>
-      <c r="F200" s="75"/>
-      <c r="G200" s="75"/>
-      <c r="H200" s="76"/>
+      <c r="A200" s="98"/>
+      <c r="B200" s="99"/>
+      <c r="C200" s="99"/>
+      <c r="D200" s="99"/>
+      <c r="E200" s="99"/>
+      <c r="F200" s="99"/>
+      <c r="G200" s="99"/>
+      <c r="H200" s="100"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -5539,11 +5531,11 @@
       <c r="P202" s="5"/>
     </row>
     <row r="203" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="70" t="str">
+      <c r="A203" s="93" t="str">
         <f>IF(EMPENHOS!A34="","",EMPENHOS!A34)</f>
         <v/>
       </c>
-      <c r="B203" s="67"/>
+      <c r="B203" s="94"/>
       <c r="C203" s="48">
         <f>EMPENHOS!B34</f>
         <v>0</v>
@@ -5563,18 +5555,18 @@
       <c r="P203" s="5"/>
     </row>
     <row r="204" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="71" t="str">
+      <c r="A204" s="95" t="str">
         <f>IF(A203="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A203&amp;" - "&amp;EMPENHOS!C34&amp;"."&amp;EMPENHOS!D34&amp;" - "&amp;C203&amp;"."&amp;MID(EMPENHOS!E34,12,46)&amp;"
- - SOLICITANTE: "&amp;A96)</f>
+ - SOLICITANTE: "&amp;A24)</f>
         <v/>
       </c>
-      <c r="B204" s="67"/>
-      <c r="C204" s="67"/>
-      <c r="D204" s="67"/>
-      <c r="E204" s="67"/>
-      <c r="F204" s="67"/>
-      <c r="G204" s="67"/>
-      <c r="H204" s="72"/>
+      <c r="B204" s="94"/>
+      <c r="C204" s="94"/>
+      <c r="D204" s="94"/>
+      <c r="E204" s="94"/>
+      <c r="F204" s="94"/>
+      <c r="G204" s="94"/>
+      <c r="H204" s="96"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -5585,14 +5577,14 @@
       <c r="P204" s="5"/>
     </row>
     <row r="205" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="73"/>
-      <c r="B205" s="67"/>
-      <c r="C205" s="67"/>
-      <c r="D205" s="67"/>
-      <c r="E205" s="67"/>
-      <c r="F205" s="67"/>
-      <c r="G205" s="67"/>
-      <c r="H205" s="72"/>
+      <c r="A205" s="97"/>
+      <c r="B205" s="94"/>
+      <c r="C205" s="94"/>
+      <c r="D205" s="94"/>
+      <c r="E205" s="94"/>
+      <c r="F205" s="94"/>
+      <c r="G205" s="94"/>
+      <c r="H205" s="96"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -5603,14 +5595,14 @@
       <c r="P205" s="5"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" s="74"/>
-      <c r="B206" s="75"/>
-      <c r="C206" s="75"/>
-      <c r="D206" s="75"/>
-      <c r="E206" s="75"/>
-      <c r="F206" s="75"/>
-      <c r="G206" s="75"/>
-      <c r="H206" s="76"/>
+      <c r="A206" s="98"/>
+      <c r="B206" s="99"/>
+      <c r="C206" s="99"/>
+      <c r="D206" s="99"/>
+      <c r="E206" s="99"/>
+      <c r="F206" s="99"/>
+      <c r="G206" s="99"/>
+      <c r="H206" s="100"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -5638,17 +5630,27 @@
       <c r="O207" s="5"/>
       <c r="P207" s="5"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A208" s="50"/>
-      <c r="B208" s="50"/>
-      <c r="C208" s="50"/>
-      <c r="D208" s="34"/>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="34"/>
+    <row r="208" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B208" s="53"/>
+      <c r="C208" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="40"/>
+      <c r="E208" s="41"/>
+      <c r="F208" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G208" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H208" s="42"/>
       <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
+      <c r="J208" s="13">
+        <v>31</v>
+      </c>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
@@ -5657,21 +5659,20 @@
       <c r="P208" s="5"/>
     </row>
     <row r="209" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B209" s="67"/>
-      <c r="C209" s="67"/>
-      <c r="D209" s="37"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G209" s="68">
-        <f ca="1">TODAY()</f>
-        <v>45948</v>
-      </c>
-      <c r="H209" s="69"/>
+      <c r="A209" s="93" t="str">
+        <f>IF(EMPENHOS!A35="","",EMPENHOS!A90)</f>
+        <v/>
+      </c>
+      <c r="B209" s="94"/>
+      <c r="C209" s="48">
+        <f>EMPENHOS!B35</f>
+        <v>0</v>
+      </c>
+      <c r="D209" s="49"/>
+      <c r="E209" s="49"/>
+      <c r="F209" s="50"/>
+      <c r="G209" s="50"/>
+      <c r="H209" s="51"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -5681,15 +5682,19 @@
       <c r="O209" s="5"/>
       <c r="P209" s="5"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A210" s="50"/>
-      <c r="B210" s="50"/>
-      <c r="C210" s="50"/>
-      <c r="D210" s="34"/>
-      <c r="E210" s="34"/>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="34"/>
+    <row r="210" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="95" t="str">
+        <f>IF(A209="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A209&amp;" - "&amp;EMPENHOS!C35&amp;"."&amp;EMPENHOS!D35&amp;" - "&amp;C209&amp;"."&amp;MID(EMPENHOS!E35,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B210" s="94"/>
+      <c r="C210" s="94"/>
+      <c r="D210" s="94"/>
+      <c r="E210" s="94"/>
+      <c r="F210" s="94"/>
+      <c r="G210" s="94"/>
+      <c r="H210" s="96"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -5700,14 +5705,14 @@
       <c r="P210" s="5"/>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A211" s="50"/>
-      <c r="B211" s="50"/>
-      <c r="C211" s="50"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="34"/>
+      <c r="A211" s="97"/>
+      <c r="B211" s="94"/>
+      <c r="C211" s="94"/>
+      <c r="D211" s="94"/>
+      <c r="E211" s="94"/>
+      <c r="F211" s="94"/>
+      <c r="G211" s="94"/>
+      <c r="H211" s="96"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
@@ -5718,14 +5723,14 @@
       <c r="P211" s="5"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A212" s="50"/>
-      <c r="B212" s="50"/>
-      <c r="C212" s="50"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="34"/>
+      <c r="A212" s="98"/>
+      <c r="B212" s="99"/>
+      <c r="C212" s="99"/>
+      <c r="D212" s="99"/>
+      <c r="E212" s="99"/>
+      <c r="F212" s="99"/>
+      <c r="G212" s="99"/>
+      <c r="H212" s="100"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -5735,15 +5740,15 @@
       <c r="O212" s="5"/>
       <c r="P212" s="5"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A213" s="50"/>
-      <c r="B213" s="50"/>
-      <c r="C213" s="50"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="34"/>
+    <row r="213" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="62"/>
+      <c r="B213" s="61"/>
+      <c r="C213" s="49"/>
+      <c r="D213" s="45"/>
+      <c r="E213" s="46"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="44"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -5753,17 +5758,27 @@
       <c r="O213" s="5"/>
       <c r="P213" s="5"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A214" s="64"/>
-      <c r="B214" s="64"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="56"/>
-      <c r="E214" s="56"/>
-      <c r="F214" s="56"/>
-      <c r="G214" s="56"/>
-      <c r="H214" s="56"/>
+    <row r="214" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B214" s="53"/>
+      <c r="C214" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" s="40"/>
+      <c r="E214" s="41"/>
+      <c r="F214" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G214" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H214" s="42"/>
       <c r="I214" s="5"/>
-      <c r="J214" s="5"/>
+      <c r="J214" s="13">
+        <v>32</v>
+      </c>
       <c r="K214" s="5"/>
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
@@ -5771,15 +5786,21 @@
       <c r="O214" s="5"/>
       <c r="P214" s="5"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A215" s="64"/>
-      <c r="B215" s="64"/>
-      <c r="C215" s="64"/>
-      <c r="D215" s="56"/>
-      <c r="E215" s="56"/>
-      <c r="F215" s="56"/>
-      <c r="G215" s="56"/>
-      <c r="H215" s="56"/>
+    <row r="215" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="93" t="str">
+        <f>IF(EMPENHOS!A36="","",EMPENHOS!A36)</f>
+        <v/>
+      </c>
+      <c r="B215" s="94"/>
+      <c r="C215" s="48">
+        <f>EMPENHOS!B36</f>
+        <v>0</v>
+      </c>
+      <c r="D215" s="49"/>
+      <c r="E215" s="49"/>
+      <c r="F215" s="50"/>
+      <c r="G215" s="50"/>
+      <c r="H215" s="51"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -5789,15 +5810,19 @@
       <c r="O215" s="5"/>
       <c r="P215" s="5"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A216" s="64"/>
-      <c r="B216" s="64"/>
-      <c r="C216" s="64"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="56"/>
-      <c r="F216" s="56"/>
-      <c r="G216" s="56"/>
-      <c r="H216" s="56"/>
+    <row r="216" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="95" t="str">
+        <f>IF(A215="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A215&amp;" - "&amp;EMPENHOS!C36&amp;"."&amp;EMPENHOS!D36&amp;" - "&amp;C215&amp;"."&amp;MID(EMPENHOS!E36,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B216" s="94"/>
+      <c r="C216" s="94"/>
+      <c r="D216" s="94"/>
+      <c r="E216" s="94"/>
+      <c r="F216" s="94"/>
+      <c r="G216" s="94"/>
+      <c r="H216" s="96"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -5808,14 +5833,14 @@
       <c r="P216" s="5"/>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A217" s="64"/>
-      <c r="B217" s="64"/>
-      <c r="C217" s="64"/>
-      <c r="D217" s="56"/>
-      <c r="E217" s="56"/>
-      <c r="F217" s="56"/>
-      <c r="G217" s="56"/>
-      <c r="H217" s="56"/>
+      <c r="A217" s="97"/>
+      <c r="B217" s="94"/>
+      <c r="C217" s="94"/>
+      <c r="D217" s="94"/>
+      <c r="E217" s="94"/>
+      <c r="F217" s="94"/>
+      <c r="G217" s="94"/>
+      <c r="H217" s="96"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -5826,14 +5851,14 @@
       <c r="P217" s="5"/>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A218" s="64"/>
-      <c r="B218" s="64"/>
-      <c r="C218" s="64"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="56"/>
-      <c r="F218" s="56"/>
-      <c r="G218" s="56"/>
-      <c r="H218" s="56"/>
+      <c r="A218" s="98"/>
+      <c r="B218" s="99"/>
+      <c r="C218" s="99"/>
+      <c r="D218" s="99"/>
+      <c r="E218" s="99"/>
+      <c r="F218" s="99"/>
+      <c r="G218" s="99"/>
+      <c r="H218" s="100"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -5843,15 +5868,15 @@
       <c r="O218" s="5"/>
       <c r="P218" s="5"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A219" s="64"/>
-      <c r="B219" s="64"/>
-      <c r="C219" s="64"/>
-      <c r="D219" s="56"/>
-      <c r="E219" s="56"/>
-      <c r="F219" s="56"/>
-      <c r="G219" s="56"/>
-      <c r="H219" s="56"/>
+    <row r="219" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="62"/>
+      <c r="B219" s="61"/>
+      <c r="C219" s="49"/>
+      <c r="D219" s="45"/>
+      <c r="E219" s="46"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="43"/>
+      <c r="H219" s="44"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -5861,17 +5886,27 @@
       <c r="O219" s="5"/>
       <c r="P219" s="5"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A220" s="64"/>
-      <c r="B220" s="64"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="56"/>
-      <c r="E220" s="56"/>
-      <c r="F220" s="56"/>
-      <c r="G220" s="56"/>
-      <c r="H220" s="56"/>
+    <row r="220" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B220" s="53"/>
+      <c r="C220" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="40"/>
+      <c r="E220" s="41"/>
+      <c r="F220" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G220" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H220" s="42"/>
       <c r="I220" s="5"/>
-      <c r="J220" s="5"/>
+      <c r="J220" s="13">
+        <v>33</v>
+      </c>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
@@ -5879,15 +5914,21 @@
       <c r="O220" s="5"/>
       <c r="P220" s="5"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A221" s="64"/>
-      <c r="B221" s="64"/>
-      <c r="C221" s="64"/>
-      <c r="D221" s="56"/>
-      <c r="E221" s="56"/>
-      <c r="F221" s="56"/>
-      <c r="G221" s="56"/>
-      <c r="H221" s="56"/>
+    <row r="221" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="93" t="str">
+        <f>IF(EMPENHOS!A37="","",EMPENHOS!A37)</f>
+        <v/>
+      </c>
+      <c r="B221" s="94"/>
+      <c r="C221" s="48">
+        <f>EMPENHOS!B37</f>
+        <v>0</v>
+      </c>
+      <c r="D221" s="49"/>
+      <c r="E221" s="49"/>
+      <c r="F221" s="50"/>
+      <c r="G221" s="50"/>
+      <c r="H221" s="51"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -5897,15 +5938,19 @@
       <c r="O221" s="5"/>
       <c r="P221" s="5"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A222" s="64"/>
-      <c r="B222" s="64"/>
-      <c r="C222" s="64"/>
-      <c r="D222" s="56"/>
-      <c r="E222" s="56"/>
-      <c r="F222" s="56"/>
-      <c r="G222" s="56"/>
-      <c r="H222" s="56"/>
+    <row r="222" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="95" t="str">
+        <f>IF(A221="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A221&amp;" - "&amp;EMPENHOS!C39&amp;"."&amp;EMPENHOS!D39&amp;" - "&amp;C221&amp;"."&amp;MID(EMPENHOS!E39,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B222" s="94"/>
+      <c r="C222" s="94"/>
+      <c r="D222" s="94"/>
+      <c r="E222" s="94"/>
+      <c r="F222" s="94"/>
+      <c r="G222" s="94"/>
+      <c r="H222" s="96"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
@@ -5916,14 +5961,14 @@
       <c r="P222" s="5"/>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A223" s="64"/>
-      <c r="B223" s="64"/>
-      <c r="C223" s="64"/>
-      <c r="D223" s="56"/>
-      <c r="E223" s="56"/>
-      <c r="F223" s="56"/>
-      <c r="G223" s="56"/>
-      <c r="H223" s="56"/>
+      <c r="A223" s="97"/>
+      <c r="B223" s="94"/>
+      <c r="C223" s="94"/>
+      <c r="D223" s="94"/>
+      <c r="E223" s="94"/>
+      <c r="F223" s="94"/>
+      <c r="G223" s="94"/>
+      <c r="H223" s="96"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
@@ -5934,14 +5979,14 @@
       <c r="P223" s="5"/>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A224" s="64"/>
-      <c r="B224" s="64"/>
-      <c r="C224" s="64"/>
-      <c r="D224" s="56"/>
-      <c r="E224" s="56"/>
-      <c r="F224" s="56"/>
-      <c r="G224" s="56"/>
-      <c r="H224" s="56"/>
+      <c r="A224" s="98"/>
+      <c r="B224" s="99"/>
+      <c r="C224" s="99"/>
+      <c r="D224" s="99"/>
+      <c r="E224" s="99"/>
+      <c r="F224" s="99"/>
+      <c r="G224" s="99"/>
+      <c r="H224" s="100"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
@@ -5951,15 +5996,15 @@
       <c r="O224" s="5"/>
       <c r="P224" s="5"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A225" s="64"/>
-      <c r="B225" s="64"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="56"/>
-      <c r="E225" s="56"/>
-      <c r="F225" s="56"/>
-      <c r="G225" s="56"/>
-      <c r="H225" s="56"/>
+    <row r="225" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="62"/>
+      <c r="B225" s="61"/>
+      <c r="C225" s="49"/>
+      <c r="D225" s="45"/>
+      <c r="E225" s="46"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="43"/>
+      <c r="H225" s="44"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
@@ -5969,17 +6014,27 @@
       <c r="O225" s="5"/>
       <c r="P225" s="5"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A226" s="64"/>
-      <c r="B226" s="64"/>
-      <c r="C226" s="64"/>
-      <c r="D226" s="56"/>
-      <c r="E226" s="56"/>
-      <c r="F226" s="56"/>
-      <c r="G226" s="56"/>
-      <c r="H226" s="56"/>
+    <row r="226" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B226" s="53"/>
+      <c r="C226" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="40"/>
+      <c r="E226" s="41"/>
+      <c r="F226" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G226" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H226" s="42"/>
       <c r="I226" s="5"/>
-      <c r="J226" s="5"/>
+      <c r="J226" s="13">
+        <v>34</v>
+      </c>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
@@ -5987,15 +6042,21 @@
       <c r="O226" s="5"/>
       <c r="P226" s="5"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A227" s="64"/>
-      <c r="B227" s="64"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="56"/>
-      <c r="E227" s="56"/>
-      <c r="F227" s="56"/>
-      <c r="G227" s="56"/>
-      <c r="H227" s="56"/>
+    <row r="227" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="93" t="str">
+        <f>IF(EMPENHOS!A38="","",EMPENHOS!A38)</f>
+        <v/>
+      </c>
+      <c r="B227" s="94"/>
+      <c r="C227" s="48">
+        <f>EMPENHOS!B38</f>
+        <v>0</v>
+      </c>
+      <c r="D227" s="49"/>
+      <c r="E227" s="49"/>
+      <c r="F227" s="50"/>
+      <c r="G227" s="50"/>
+      <c r="H227" s="51"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
@@ -6005,15 +6066,19 @@
       <c r="O227" s="5"/>
       <c r="P227" s="5"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A228" s="64"/>
-      <c r="B228" s="64"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="56"/>
-      <c r="E228" s="56"/>
-      <c r="F228" s="56"/>
-      <c r="G228" s="56"/>
-      <c r="H228" s="56"/>
+    <row r="228" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="95" t="str">
+        <f>IF(A227="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A227&amp;" - "&amp;EMPENHOS!C40&amp;"."&amp;EMPENHOS!D40&amp;" - "&amp;C227&amp;"."&amp;MID(EMPENHOS!E40,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B228" s="94"/>
+      <c r="C228" s="94"/>
+      <c r="D228" s="94"/>
+      <c r="E228" s="94"/>
+      <c r="F228" s="94"/>
+      <c r="G228" s="94"/>
+      <c r="H228" s="96"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
@@ -6024,14 +6089,14 @@
       <c r="P228" s="5"/>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A229" s="64"/>
-      <c r="B229" s="64"/>
-      <c r="C229" s="64"/>
-      <c r="D229" s="56"/>
-      <c r="E229" s="56"/>
-      <c r="F229" s="56"/>
-      <c r="G229" s="56"/>
-      <c r="H229" s="56"/>
+      <c r="A229" s="97"/>
+      <c r="B229" s="94"/>
+      <c r="C229" s="94"/>
+      <c r="D229" s="94"/>
+      <c r="E229" s="94"/>
+      <c r="F229" s="94"/>
+      <c r="G229" s="94"/>
+      <c r="H229" s="96"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
@@ -6042,14 +6107,14 @@
       <c r="P229" s="5"/>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A230" s="64"/>
-      <c r="B230" s="64"/>
-      <c r="C230" s="64"/>
-      <c r="D230" s="56"/>
-      <c r="E230" s="56"/>
-      <c r="F230" s="56"/>
-      <c r="G230" s="56"/>
-      <c r="H230" s="56"/>
+      <c r="A230" s="98"/>
+      <c r="B230" s="99"/>
+      <c r="C230" s="99"/>
+      <c r="D230" s="99"/>
+      <c r="E230" s="99"/>
+      <c r="F230" s="99"/>
+      <c r="G230" s="99"/>
+      <c r="H230" s="100"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
@@ -6060,14 +6125,14 @@
       <c r="P230" s="5"/>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A231" s="64"/>
-      <c r="B231" s="64"/>
-      <c r="C231" s="64"/>
-      <c r="D231" s="56"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="56"/>
-      <c r="G231" s="56"/>
-      <c r="H231" s="56"/>
+      <c r="A231" s="50"/>
+      <c r="B231" s="50"/>
+      <c r="C231" s="50"/>
+      <c r="D231" s="43"/>
+      <c r="E231" s="43"/>
+      <c r="F231" s="43"/>
+      <c r="G231" s="43"/>
+      <c r="H231" s="43"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
@@ -6077,17 +6142,27 @@
       <c r="O231" s="5"/>
       <c r="P231" s="5"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A232" s="64"/>
-      <c r="B232" s="64"/>
-      <c r="C232" s="64"/>
-      <c r="D232" s="56"/>
-      <c r="E232" s="56"/>
-      <c r="F232" s="56"/>
-      <c r="G232" s="56"/>
-      <c r="H232" s="56"/>
+    <row r="232" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B232" s="53"/>
+      <c r="C232" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="40"/>
+      <c r="E232" s="41"/>
+      <c r="F232" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G232" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H232" s="42"/>
       <c r="I232" s="5"/>
-      <c r="J232" s="5"/>
+      <c r="J232" s="13">
+        <v>35</v>
+      </c>
       <c r="K232" s="5"/>
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
@@ -6095,15 +6170,21 @@
       <c r="O232" s="5"/>
       <c r="P232" s="5"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A233" s="64"/>
-      <c r="B233" s="64"/>
-      <c r="C233" s="64"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="56"/>
-      <c r="F233" s="56"/>
-      <c r="G233" s="56"/>
-      <c r="H233" s="56"/>
+    <row r="233" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="93" t="str">
+        <f>IF(EMPENHOS!A39="","",EMPENHOS!A39)</f>
+        <v/>
+      </c>
+      <c r="B233" s="94"/>
+      <c r="C233" s="48">
+        <f>EMPENHOS!B39</f>
+        <v>0</v>
+      </c>
+      <c r="D233" s="49"/>
+      <c r="E233" s="49"/>
+      <c r="F233" s="50"/>
+      <c r="G233" s="50"/>
+      <c r="H233" s="51"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
@@ -6113,15 +6194,19 @@
       <c r="O233" s="5"/>
       <c r="P233" s="5"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A234" s="64"/>
-      <c r="B234" s="64"/>
-      <c r="C234" s="64"/>
-      <c r="D234" s="56"/>
-      <c r="E234" s="56"/>
-      <c r="F234" s="56"/>
-      <c r="G234" s="56"/>
-      <c r="H234" s="56"/>
+    <row r="234" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="95" t="str">
+        <f>IF(A233="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A233&amp;" - "&amp;EMPENHOS!C41&amp;"."&amp;EMPENHOS!D41&amp;" - "&amp;C233&amp;"."&amp;MID(EMPENHOS!E41,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B234" s="94"/>
+      <c r="C234" s="94"/>
+      <c r="D234" s="94"/>
+      <c r="E234" s="94"/>
+      <c r="F234" s="94"/>
+      <c r="G234" s="94"/>
+      <c r="H234" s="96"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
@@ -6132,14 +6217,14 @@
       <c r="P234" s="5"/>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A235" s="64"/>
-      <c r="B235" s="64"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="56"/>
-      <c r="E235" s="56"/>
-      <c r="F235" s="56"/>
-      <c r="G235" s="56"/>
-      <c r="H235" s="56"/>
+      <c r="A235" s="97"/>
+      <c r="B235" s="94"/>
+      <c r="C235" s="94"/>
+      <c r="D235" s="94"/>
+      <c r="E235" s="94"/>
+      <c r="F235" s="94"/>
+      <c r="G235" s="94"/>
+      <c r="H235" s="96"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
@@ -6150,14 +6235,14 @@
       <c r="P235" s="5"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A236" s="64"/>
-      <c r="B236" s="64"/>
-      <c r="C236" s="64"/>
-      <c r="D236" s="56"/>
-      <c r="E236" s="56"/>
-      <c r="F236" s="56"/>
-      <c r="G236" s="56"/>
-      <c r="H236" s="56"/>
+      <c r="A236" s="98"/>
+      <c r="B236" s="99"/>
+      <c r="C236" s="99"/>
+      <c r="D236" s="99"/>
+      <c r="E236" s="99"/>
+      <c r="F236" s="99"/>
+      <c r="G236" s="99"/>
+      <c r="H236" s="100"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
       <c r="K236" s="5"/>
@@ -6167,16 +6252,16 @@
       <c r="O236" s="5"/>
       <c r="P236" s="5"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A237" s="64"/>
-      <c r="B237" s="64"/>
-      <c r="C237" s="64"/>
-      <c r="D237" s="56"/>
-      <c r="E237" s="56"/>
-      <c r="F237" s="56"/>
-      <c r="G237" s="56"/>
-      <c r="H237" s="56"/>
-      <c r="I237" s="5"/>
+    <row r="237" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="63"/>
+      <c r="B237" s="63"/>
+      <c r="C237" s="63"/>
+      <c r="D237" s="47"/>
+      <c r="E237" s="47"/>
+      <c r="F237" s="47"/>
+      <c r="G237" s="47"/>
+      <c r="H237" s="47"/>
+      <c r="I237" s="17"/>
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
       <c r="L237" s="5"/>
@@ -6185,17 +6270,27 @@
       <c r="O237" s="5"/>
       <c r="P237" s="5"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A238" s="64"/>
-      <c r="B238" s="64"/>
-      <c r="C238" s="64"/>
-      <c r="D238" s="56"/>
-      <c r="E238" s="56"/>
-      <c r="F238" s="56"/>
-      <c r="G238" s="56"/>
-      <c r="H238" s="56"/>
+    <row r="238" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B238" s="53"/>
+      <c r="C238" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="40"/>
+      <c r="E238" s="41"/>
+      <c r="F238" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G238" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H238" s="42"/>
       <c r="I238" s="5"/>
-      <c r="J238" s="5"/>
+      <c r="J238" s="13">
+        <v>36</v>
+      </c>
       <c r="K238" s="5"/>
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
@@ -6203,15 +6298,21 @@
       <c r="O238" s="5"/>
       <c r="P238" s="5"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A239" s="64"/>
-      <c r="B239" s="64"/>
-      <c r="C239" s="64"/>
-      <c r="D239" s="56"/>
-      <c r="E239" s="56"/>
-      <c r="F239" s="56"/>
-      <c r="G239" s="56"/>
-      <c r="H239" s="56"/>
+    <row r="239" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="93" t="str">
+        <f>IF(EMPENHOS!A40="","",EMPENHOS!A40)</f>
+        <v/>
+      </c>
+      <c r="B239" s="94"/>
+      <c r="C239" s="48">
+        <f>EMPENHOS!B40</f>
+        <v>0</v>
+      </c>
+      <c r="D239" s="49"/>
+      <c r="E239" s="49"/>
+      <c r="F239" s="50"/>
+      <c r="G239" s="50"/>
+      <c r="H239" s="51"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
@@ -6221,15 +6322,19 @@
       <c r="O239" s="5"/>
       <c r="P239" s="5"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A240" s="64"/>
-      <c r="B240" s="64"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="56"/>
-      <c r="E240" s="56"/>
-      <c r="F240" s="56"/>
-      <c r="G240" s="56"/>
-      <c r="H240" s="56"/>
+    <row r="240" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="95" t="str">
+        <f>IF(A239="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A239&amp;" - "&amp;EMPENHOS!C42&amp;"."&amp;EMPENHOS!D42&amp;" -  "&amp;C239&amp;"."&amp;MID(EMPENHOS!E42,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B240" s="94"/>
+      <c r="C240" s="94"/>
+      <c r="D240" s="94"/>
+      <c r="E240" s="94"/>
+      <c r="F240" s="94"/>
+      <c r="G240" s="94"/>
+      <c r="H240" s="96"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
@@ -6240,14 +6345,14 @@
       <c r="P240" s="5"/>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A241" s="64"/>
-      <c r="B241" s="64"/>
-      <c r="C241" s="64"/>
-      <c r="D241" s="56"/>
-      <c r="E241" s="56"/>
-      <c r="F241" s="56"/>
-      <c r="G241" s="56"/>
-      <c r="H241" s="56"/>
+      <c r="A241" s="97"/>
+      <c r="B241" s="94"/>
+      <c r="C241" s="94"/>
+      <c r="D241" s="94"/>
+      <c r="E241" s="94"/>
+      <c r="F241" s="94"/>
+      <c r="G241" s="94"/>
+      <c r="H241" s="96"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
       <c r="K241" s="5"/>
@@ -6258,14 +6363,14 @@
       <c r="P241" s="5"/>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A242" s="64"/>
-      <c r="B242" s="64"/>
-      <c r="C242" s="64"/>
-      <c r="D242" s="56"/>
-      <c r="E242" s="56"/>
-      <c r="F242" s="56"/>
-      <c r="G242" s="56"/>
-      <c r="H242" s="56"/>
+      <c r="A242" s="98"/>
+      <c r="B242" s="99"/>
+      <c r="C242" s="99"/>
+      <c r="D242" s="99"/>
+      <c r="E242" s="99"/>
+      <c r="F242" s="99"/>
+      <c r="G242" s="99"/>
+      <c r="H242" s="100"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
       <c r="K242" s="5"/>
@@ -6276,14 +6381,14 @@
       <c r="P242" s="5"/>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A243" s="64"/>
-      <c r="B243" s="64"/>
-      <c r="C243" s="64"/>
-      <c r="D243" s="56"/>
-      <c r="E243" s="56"/>
-      <c r="F243" s="56"/>
-      <c r="G243" s="56"/>
-      <c r="H243" s="56"/>
+      <c r="A243" s="50"/>
+      <c r="B243" s="50"/>
+      <c r="C243" s="50"/>
+      <c r="D243" s="43"/>
+      <c r="E243" s="43"/>
+      <c r="F243" s="43"/>
+      <c r="G243" s="43"/>
+      <c r="H243" s="43"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
       <c r="K243" s="5"/>
@@ -6293,17 +6398,27 @@
       <c r="O243" s="5"/>
       <c r="P243" s="5"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A244" s="64"/>
-      <c r="B244" s="64"/>
-      <c r="C244" s="64"/>
-      <c r="D244" s="56"/>
-      <c r="E244" s="56"/>
-      <c r="F244" s="56"/>
-      <c r="G244" s="56"/>
-      <c r="H244" s="56"/>
+    <row r="244" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B244" s="53"/>
+      <c r="C244" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="40"/>
+      <c r="E244" s="41"/>
+      <c r="F244" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G244" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H244" s="42"/>
       <c r="I244" s="5"/>
-      <c r="J244" s="5"/>
+      <c r="J244" s="13">
+        <v>37</v>
+      </c>
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
@@ -6311,15 +6426,21 @@
       <c r="O244" s="5"/>
       <c r="P244" s="5"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A245" s="64"/>
-      <c r="B245" s="64"/>
-      <c r="C245" s="64"/>
-      <c r="D245" s="56"/>
-      <c r="E245" s="56"/>
-      <c r="F245" s="56"/>
-      <c r="G245" s="56"/>
-      <c r="H245" s="56"/>
+    <row r="245" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="93" t="str">
+        <f>IF(EMPENHOS!A41="","",EMPENHOS!A41)</f>
+        <v/>
+      </c>
+      <c r="B245" s="94"/>
+      <c r="C245" s="48">
+        <f>EMPENHOS!B41</f>
+        <v>0</v>
+      </c>
+      <c r="D245" s="49"/>
+      <c r="E245" s="49"/>
+      <c r="F245" s="50"/>
+      <c r="G245" s="50"/>
+      <c r="H245" s="51"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
       <c r="K245" s="5"/>
@@ -6329,15 +6450,19 @@
       <c r="O245" s="5"/>
       <c r="P245" s="5"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A246" s="64"/>
-      <c r="B246" s="64"/>
-      <c r="C246" s="64"/>
-      <c r="D246" s="56"/>
-      <c r="E246" s="56"/>
-      <c r="F246" s="56"/>
-      <c r="G246" s="56"/>
-      <c r="H246" s="56"/>
+    <row r="246" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="95" t="str">
+        <f>IF(A245="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A245&amp;" - "&amp;EMPENHOS!C43&amp;"."&amp;EMPENHOS!D43&amp;" - "&amp;C245&amp;"."&amp;MID(EMPENHOS!E43,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B246" s="94"/>
+      <c r="C246" s="94"/>
+      <c r="D246" s="94"/>
+      <c r="E246" s="94"/>
+      <c r="F246" s="94"/>
+      <c r="G246" s="94"/>
+      <c r="H246" s="96"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
@@ -6348,14 +6473,14 @@
       <c r="P246" s="5"/>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A247" s="64"/>
-      <c r="B247" s="64"/>
-      <c r="C247" s="64"/>
-      <c r="D247" s="56"/>
-      <c r="E247" s="56"/>
-      <c r="F247" s="56"/>
-      <c r="G247" s="56"/>
-      <c r="H247" s="56"/>
+      <c r="A247" s="97"/>
+      <c r="B247" s="94"/>
+      <c r="C247" s="94"/>
+      <c r="D247" s="94"/>
+      <c r="E247" s="94"/>
+      <c r="F247" s="94"/>
+      <c r="G247" s="94"/>
+      <c r="H247" s="96"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
@@ -6366,14 +6491,14 @@
       <c r="P247" s="5"/>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A248" s="64"/>
-      <c r="B248" s="64"/>
-      <c r="C248" s="64"/>
-      <c r="D248" s="56"/>
-      <c r="E248" s="56"/>
-      <c r="F248" s="56"/>
-      <c r="G248" s="56"/>
-      <c r="H248" s="56"/>
+      <c r="A248" s="98"/>
+      <c r="B248" s="99"/>
+      <c r="C248" s="99"/>
+      <c r="D248" s="99"/>
+      <c r="E248" s="99"/>
+      <c r="F248" s="99"/>
+      <c r="G248" s="99"/>
+      <c r="H248" s="100"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
@@ -6384,14 +6509,14 @@
       <c r="P248" s="5"/>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A249" s="64"/>
-      <c r="B249" s="64"/>
-      <c r="C249" s="64"/>
-      <c r="D249" s="56"/>
-      <c r="E249" s="56"/>
-      <c r="F249" s="56"/>
-      <c r="G249" s="56"/>
-      <c r="H249" s="56"/>
+      <c r="A249" s="50"/>
+      <c r="B249" s="50"/>
+      <c r="C249" s="50"/>
+      <c r="D249" s="43"/>
+      <c r="E249" s="43"/>
+      <c r="F249" s="43"/>
+      <c r="G249" s="43"/>
+      <c r="H249" s="43"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
       <c r="K249" s="5"/>
@@ -6401,17 +6526,27 @@
       <c r="O249" s="5"/>
       <c r="P249" s="5"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A250" s="64"/>
-      <c r="B250" s="64"/>
-      <c r="C250" s="64"/>
-      <c r="D250" s="56"/>
-      <c r="E250" s="56"/>
-      <c r="F250" s="56"/>
-      <c r="G250" s="56"/>
-      <c r="H250" s="56"/>
+    <row r="250" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B250" s="53"/>
+      <c r="C250" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="40"/>
+      <c r="E250" s="41"/>
+      <c r="F250" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G250" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H250" s="42"/>
       <c r="I250" s="5"/>
-      <c r="J250" s="5"/>
+      <c r="J250" s="13">
+        <v>38</v>
+      </c>
       <c r="K250" s="5"/>
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
@@ -6419,15 +6554,21 @@
       <c r="O250" s="5"/>
       <c r="P250" s="5"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A251" s="64"/>
-      <c r="B251" s="64"/>
-      <c r="C251" s="64"/>
-      <c r="D251" s="56"/>
-      <c r="E251" s="56"/>
-      <c r="F251" s="56"/>
-      <c r="G251" s="56"/>
-      <c r="H251" s="56"/>
+    <row r="251" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="93" t="str">
+        <f>IF(EMPENHOS!A42="","",EMPENHOS!A42)</f>
+        <v/>
+      </c>
+      <c r="B251" s="94"/>
+      <c r="C251" s="48">
+        <f>EMPENHOS!B42</f>
+        <v>0</v>
+      </c>
+      <c r="D251" s="49"/>
+      <c r="E251" s="49"/>
+      <c r="F251" s="50"/>
+      <c r="G251" s="50"/>
+      <c r="H251" s="51"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
       <c r="K251" s="5"/>
@@ -6437,15 +6578,19 @@
       <c r="O251" s="5"/>
       <c r="P251" s="5"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A252" s="64"/>
-      <c r="B252" s="64"/>
-      <c r="C252" s="64"/>
-      <c r="D252" s="56"/>
-      <c r="E252" s="56"/>
-      <c r="F252" s="56"/>
-      <c r="G252" s="56"/>
-      <c r="H252" s="56"/>
+    <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="95" t="str">
+        <f>IF(A251="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A251&amp;" - "&amp;EMPENHOS!C44&amp;"."&amp;EMPENHOS!D44&amp;" - "&amp;C251&amp;"."&amp;MID(EMPENHOS!E44,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B252" s="94"/>
+      <c r="C252" s="94"/>
+      <c r="D252" s="94"/>
+      <c r="E252" s="94"/>
+      <c r="F252" s="94"/>
+      <c r="G252" s="94"/>
+      <c r="H252" s="96"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
       <c r="K252" s="5"/>
@@ -6456,14 +6601,14 @@
       <c r="P252" s="5"/>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A253" s="64"/>
-      <c r="B253" s="64"/>
-      <c r="C253" s="64"/>
-      <c r="D253" s="56"/>
-      <c r="E253" s="56"/>
-      <c r="F253" s="56"/>
-      <c r="G253" s="56"/>
-      <c r="H253" s="56"/>
+      <c r="A253" s="97"/>
+      <c r="B253" s="94"/>
+      <c r="C253" s="94"/>
+      <c r="D253" s="94"/>
+      <c r="E253" s="94"/>
+      <c r="F253" s="94"/>
+      <c r="G253" s="94"/>
+      <c r="H253" s="96"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
       <c r="K253" s="5"/>
@@ -6474,14 +6619,14 @@
       <c r="P253" s="5"/>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A254" s="64"/>
-      <c r="B254" s="64"/>
-      <c r="C254" s="64"/>
-      <c r="D254" s="56"/>
-      <c r="E254" s="56"/>
-      <c r="F254" s="56"/>
-      <c r="G254" s="56"/>
-      <c r="H254" s="56"/>
+      <c r="A254" s="98"/>
+      <c r="B254" s="99"/>
+      <c r="C254" s="99"/>
+      <c r="D254" s="99"/>
+      <c r="E254" s="99"/>
+      <c r="F254" s="99"/>
+      <c r="G254" s="99"/>
+      <c r="H254" s="100"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
       <c r="K254" s="5"/>
@@ -6492,14 +6637,14 @@
       <c r="P254" s="5"/>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A255" s="64"/>
-      <c r="B255" s="64"/>
-      <c r="C255" s="64"/>
-      <c r="D255" s="56"/>
-      <c r="E255" s="56"/>
-      <c r="F255" s="56"/>
-      <c r="G255" s="56"/>
-      <c r="H255" s="56"/>
+      <c r="A255" s="50"/>
+      <c r="B255" s="50"/>
+      <c r="C255" s="50"/>
+      <c r="D255" s="43"/>
+      <c r="E255" s="43"/>
+      <c r="F255" s="43"/>
+      <c r="G255" s="43"/>
+      <c r="H255" s="43"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
@@ -6509,17 +6654,27 @@
       <c r="O255" s="5"/>
       <c r="P255" s="5"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A256" s="64"/>
-      <c r="B256" s="64"/>
-      <c r="C256" s="64"/>
-      <c r="D256" s="56"/>
-      <c r="E256" s="56"/>
-      <c r="F256" s="56"/>
-      <c r="G256" s="56"/>
-      <c r="H256" s="56"/>
+    <row r="256" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B256" s="53"/>
+      <c r="C256" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="40"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G256" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H256" s="42"/>
       <c r="I256" s="5"/>
-      <c r="J256" s="5"/>
+      <c r="J256" s="13">
+        <v>39</v>
+      </c>
       <c r="K256" s="5"/>
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
@@ -6527,15 +6682,21 @@
       <c r="O256" s="5"/>
       <c r="P256" s="5"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A257" s="64"/>
-      <c r="B257" s="64"/>
-      <c r="C257" s="64"/>
-      <c r="D257" s="56"/>
-      <c r="E257" s="56"/>
-      <c r="F257" s="56"/>
-      <c r="G257" s="56"/>
-      <c r="H257" s="56"/>
+    <row r="257" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="93" t="str">
+        <f>IF(EMPENHOS!A43="","",EMPENHOS!A43)</f>
+        <v/>
+      </c>
+      <c r="B257" s="94"/>
+      <c r="C257" s="48">
+        <f>EMPENHOS!B43</f>
+        <v>0</v>
+      </c>
+      <c r="D257" s="49"/>
+      <c r="E257" s="49"/>
+      <c r="F257" s="50"/>
+      <c r="G257" s="50"/>
+      <c r="H257" s="51"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
@@ -6545,15 +6706,19 @@
       <c r="O257" s="5"/>
       <c r="P257" s="5"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A258" s="64"/>
-      <c r="B258" s="64"/>
-      <c r="C258" s="64"/>
-      <c r="D258" s="56"/>
-      <c r="E258" s="56"/>
-      <c r="F258" s="56"/>
-      <c r="G258" s="56"/>
-      <c r="H258" s="56"/>
+    <row r="258" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="95" t="str">
+        <f>IF(A257="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A257&amp;" - "&amp;EMPENHOS!C45&amp;"."&amp;EMPENHOS!D45&amp;" - "&amp;C257&amp;"."&amp;MID(EMPENHOS!E45,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B258" s="94"/>
+      <c r="C258" s="94"/>
+      <c r="D258" s="94"/>
+      <c r="E258" s="94"/>
+      <c r="F258" s="94"/>
+      <c r="G258" s="94"/>
+      <c r="H258" s="96"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
       <c r="K258" s="5"/>
@@ -6564,14 +6729,14 @@
       <c r="P258" s="5"/>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A259" s="64"/>
-      <c r="B259" s="64"/>
-      <c r="C259" s="64"/>
-      <c r="D259" s="56"/>
-      <c r="E259" s="56"/>
-      <c r="F259" s="56"/>
-      <c r="G259" s="56"/>
-      <c r="H259" s="56"/>
+      <c r="A259" s="97"/>
+      <c r="B259" s="94"/>
+      <c r="C259" s="94"/>
+      <c r="D259" s="94"/>
+      <c r="E259" s="94"/>
+      <c r="F259" s="94"/>
+      <c r="G259" s="94"/>
+      <c r="H259" s="96"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
       <c r="K259" s="5"/>
@@ -6582,14 +6747,14 @@
       <c r="P259" s="5"/>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A260" s="64"/>
-      <c r="B260" s="64"/>
-      <c r="C260" s="64"/>
-      <c r="D260" s="56"/>
-      <c r="E260" s="56"/>
-      <c r="F260" s="56"/>
-      <c r="G260" s="56"/>
-      <c r="H260" s="56"/>
+      <c r="A260" s="98"/>
+      <c r="B260" s="99"/>
+      <c r="C260" s="99"/>
+      <c r="D260" s="99"/>
+      <c r="E260" s="99"/>
+      <c r="F260" s="99"/>
+      <c r="G260" s="99"/>
+      <c r="H260" s="100"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
       <c r="K260" s="5"/>
@@ -6600,14 +6765,14 @@
       <c r="P260" s="5"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A261" s="64"/>
-      <c r="B261" s="64"/>
-      <c r="C261" s="64"/>
-      <c r="D261" s="56"/>
-      <c r="E261" s="56"/>
-      <c r="F261" s="56"/>
-      <c r="G261" s="56"/>
-      <c r="H261" s="56"/>
+      <c r="A261" s="50"/>
+      <c r="B261" s="50"/>
+      <c r="C261" s="50"/>
+      <c r="D261" s="43"/>
+      <c r="E261" s="43"/>
+      <c r="F261" s="43"/>
+      <c r="G261" s="43"/>
+      <c r="H261" s="43"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
       <c r="K261" s="5"/>
@@ -6617,17 +6782,27 @@
       <c r="O261" s="5"/>
       <c r="P261" s="5"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A262" s="64"/>
-      <c r="B262" s="64"/>
-      <c r="C262" s="64"/>
-      <c r="D262" s="56"/>
-      <c r="E262" s="56"/>
-      <c r="F262" s="56"/>
-      <c r="G262" s="56"/>
-      <c r="H262" s="56"/>
+    <row r="262" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B262" s="53"/>
+      <c r="C262" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="40"/>
+      <c r="E262" s="41"/>
+      <c r="F262" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G262" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H262" s="42"/>
       <c r="I262" s="5"/>
-      <c r="J262" s="5"/>
+      <c r="J262" s="13">
+        <v>40</v>
+      </c>
       <c r="K262" s="5"/>
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
@@ -6635,15 +6810,21 @@
       <c r="O262" s="5"/>
       <c r="P262" s="5"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A263" s="64"/>
-      <c r="B263" s="64"/>
-      <c r="C263" s="64"/>
-      <c r="D263" s="56"/>
-      <c r="E263" s="56"/>
-      <c r="F263" s="56"/>
-      <c r="G263" s="56"/>
-      <c r="H263" s="56"/>
+    <row r="263" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="93" t="str">
+        <f>IF(EMPENHOS!A44="","",EMPENHOS!A44)</f>
+        <v/>
+      </c>
+      <c r="B263" s="94"/>
+      <c r="C263" s="48">
+        <f>EMPENHOS!B44</f>
+        <v>0</v>
+      </c>
+      <c r="D263" s="49"/>
+      <c r="E263" s="49"/>
+      <c r="F263" s="50"/>
+      <c r="G263" s="50"/>
+      <c r="H263" s="51"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
       <c r="K263" s="5"/>
@@ -6653,15 +6834,19 @@
       <c r="O263" s="5"/>
       <c r="P263" s="5"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A264" s="64"/>
-      <c r="B264" s="64"/>
-      <c r="C264" s="64"/>
-      <c r="D264" s="56"/>
-      <c r="E264" s="56"/>
-      <c r="F264" s="56"/>
-      <c r="G264" s="56"/>
-      <c r="H264" s="56"/>
+    <row r="264" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="95" t="str">
+        <f>IF(A263="","","APROPRIAÇÃO REFERENTE AO BOLETO NOSSO NÚMERO: "&amp;A263&amp;" - "&amp;EMPENHOS!C46&amp;"."&amp;EMPENHOS!D46&amp;" - "&amp;C263&amp;"."&amp;MID(EMPENHOS!E46,12,46)&amp;"
+ - SOLICITANTE: "&amp;A24)</f>
+        <v/>
+      </c>
+      <c r="B264" s="94"/>
+      <c r="C264" s="94"/>
+      <c r="D264" s="94"/>
+      <c r="E264" s="94"/>
+      <c r="F264" s="94"/>
+      <c r="G264" s="94"/>
+      <c r="H264" s="96"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
       <c r="K264" s="5"/>
@@ -6672,14 +6857,14 @@
       <c r="P264" s="5"/>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A265" s="64"/>
-      <c r="B265" s="64"/>
-      <c r="C265" s="64"/>
-      <c r="D265" s="56"/>
-      <c r="E265" s="56"/>
-      <c r="F265" s="56"/>
-      <c r="G265" s="56"/>
-      <c r="H265" s="56"/>
+      <c r="A265" s="97"/>
+      <c r="B265" s="94"/>
+      <c r="C265" s="94"/>
+      <c r="D265" s="94"/>
+      <c r="E265" s="94"/>
+      <c r="F265" s="94"/>
+      <c r="G265" s="94"/>
+      <c r="H265" s="96"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
       <c r="K265" s="5"/>
@@ -6690,14 +6875,14 @@
       <c r="P265" s="5"/>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A266" s="64"/>
-      <c r="B266" s="64"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="56"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="56"/>
-      <c r="G266" s="56"/>
-      <c r="H266" s="56"/>
+      <c r="A266" s="98"/>
+      <c r="B266" s="99"/>
+      <c r="C266" s="99"/>
+      <c r="D266" s="99"/>
+      <c r="E266" s="99"/>
+      <c r="F266" s="99"/>
+      <c r="G266" s="99"/>
+      <c r="H266" s="100"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
       <c r="K266" s="5"/>
@@ -6708,14 +6893,14 @@
       <c r="P266" s="5"/>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A267" s="64"/>
-      <c r="B267" s="64"/>
-      <c r="C267" s="64"/>
-      <c r="D267" s="56"/>
-      <c r="E267" s="56"/>
-      <c r="F267" s="56"/>
-      <c r="G267" s="56"/>
-      <c r="H267" s="56"/>
+      <c r="A267" s="50"/>
+      <c r="B267" s="50"/>
+      <c r="C267" s="50"/>
+      <c r="D267" s="43"/>
+      <c r="E267" s="43"/>
+      <c r="F267" s="43"/>
+      <c r="G267" s="43"/>
+      <c r="H267" s="43"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
       <c r="K267" s="5"/>
@@ -6743,15 +6928,22 @@
       <c r="O268" s="5"/>
       <c r="P268" s="5"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A269" s="64"/>
-      <c r="B269" s="64"/>
-      <c r="C269" s="64"/>
-      <c r="D269" s="56"/>
-      <c r="E269" s="56"/>
-      <c r="F269" s="56"/>
-      <c r="G269" s="56"/>
-      <c r="H269" s="56"/>
+    <row r="269" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B269" s="102"/>
+      <c r="C269" s="102"/>
+      <c r="D269" s="37"/>
+      <c r="E269" s="33"/>
+      <c r="F269" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G269" s="101">
+        <f ca="1">TODAY()</f>
+        <v>45950</v>
+      </c>
+      <c r="H269" s="101"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
       <c r="K269" s="5"/>
@@ -8453,116 +8645,8 @@
       <c r="O363" s="5"/>
       <c r="P363" s="5"/>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A364" s="64"/>
-      <c r="B364" s="64"/>
-      <c r="C364" s="64"/>
-      <c r="D364" s="56"/>
-      <c r="E364" s="56"/>
-      <c r="F364" s="56"/>
-      <c r="G364" s="56"/>
-      <c r="H364" s="56"/>
-      <c r="I364" s="5"/>
-      <c r="J364" s="5"/>
-      <c r="K364" s="5"/>
-      <c r="L364" s="5"/>
-      <c r="M364" s="5"/>
-      <c r="N364" s="5"/>
-      <c r="O364" s="5"/>
-      <c r="P364" s="5"/>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A365" s="64"/>
-      <c r="B365" s="64"/>
-      <c r="C365" s="64"/>
-      <c r="D365" s="56"/>
-      <c r="E365" s="56"/>
-      <c r="F365" s="56"/>
-      <c r="G365" s="56"/>
-      <c r="H365" s="56"/>
-      <c r="I365" s="5"/>
-      <c r="J365" s="5"/>
-      <c r="K365" s="5"/>
-      <c r="L365" s="5"/>
-      <c r="M365" s="5"/>
-      <c r="N365" s="5"/>
-      <c r="O365" s="5"/>
-      <c r="P365" s="5"/>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A366" s="64"/>
-      <c r="B366" s="64"/>
-      <c r="C366" s="64"/>
-      <c r="D366" s="56"/>
-      <c r="E366" s="56"/>
-      <c r="F366" s="56"/>
-      <c r="G366" s="56"/>
-      <c r="H366" s="56"/>
-      <c r="I366" s="5"/>
-      <c r="J366" s="5"/>
-      <c r="K366" s="5"/>
-      <c r="L366" s="5"/>
-      <c r="M366" s="5"/>
-      <c r="N366" s="5"/>
-      <c r="O366" s="5"/>
-      <c r="P366" s="5"/>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A367" s="64"/>
-      <c r="B367" s="64"/>
-      <c r="C367" s="64"/>
-      <c r="D367" s="56"/>
-      <c r="E367" s="56"/>
-      <c r="F367" s="56"/>
-      <c r="G367" s="56"/>
-      <c r="H367" s="56"/>
-      <c r="I367" s="5"/>
-      <c r="J367" s="5"/>
-      <c r="K367" s="5"/>
-      <c r="L367" s="5"/>
-      <c r="M367" s="5"/>
-      <c r="N367" s="5"/>
-      <c r="O367" s="5"/>
-      <c r="P367" s="5"/>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A368" s="64"/>
-      <c r="B368" s="64"/>
-      <c r="C368" s="64"/>
-      <c r="D368" s="56"/>
-      <c r="E368" s="56"/>
-      <c r="F368" s="56"/>
-      <c r="G368" s="56"/>
-      <c r="H368" s="56"/>
-      <c r="I368" s="5"/>
-      <c r="J368" s="5"/>
-      <c r="K368" s="5"/>
-      <c r="L368" s="5"/>
-      <c r="M368" s="5"/>
-      <c r="N368" s="5"/>
-      <c r="O368" s="5"/>
-      <c r="P368" s="5"/>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A369" s="64"/>
-      <c r="B369" s="64"/>
-      <c r="C369" s="64"/>
-      <c r="D369" s="56"/>
-      <c r="E369" s="56"/>
-      <c r="F369" s="56"/>
-      <c r="G369" s="56"/>
-      <c r="H369" s="56"/>
-      <c r="I369" s="5"/>
-      <c r="J369" s="5"/>
-      <c r="K369" s="5"/>
-      <c r="L369" s="5"/>
-      <c r="M369" s="5"/>
-      <c r="N369" s="5"/>
-      <c r="O369" s="5"/>
-      <c r="P369" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="96">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A6:I6"/>
@@ -8623,8 +8707,8 @@
     <mergeCell ref="A161:B161"/>
     <mergeCell ref="A162:H164"/>
     <mergeCell ref="A150:H152"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G269:H269"/>
+    <mergeCell ref="A269:C269"/>
     <mergeCell ref="A167:B167"/>
     <mergeCell ref="A168:H170"/>
     <mergeCell ref="A173:B173"/>
@@ -8639,6 +8723,26 @@
     <mergeCell ref="A198:H200"/>
     <mergeCell ref="A203:B203"/>
     <mergeCell ref="A204:H206"/>
+    <mergeCell ref="A252:H254"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:H260"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:H266"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:H212"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:H218"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:H224"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:H230"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:H236"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:H242"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A246:H248"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
